--- a/documents/外部設計/外部設計書_D2.xlsx
+++ b/documents/外部設計/外部設計書_D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{24DC29A1-BB03-47C0-B7AE-AEC0DD8FEBC3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA14070-8157-43D6-95B6-EDA87AE7F24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="5" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="456" yWindow="144" windowWidth="21660" windowHeight="12492" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="125">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1243,6 +1243,55 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>キーワード検索</t>
+    <rPh sb="5" eb="7">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ソート</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>質問一覧</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンイチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カテゴリー一覧</t>
+    <rPh sb="5" eb="7">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>searchkeyword</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>sort</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>categorylist</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>qlist</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>select</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>String</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1687,6 +1736,15 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1762,15 +1820,6 @@
     <xf numFmtId="176" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1783,14 +1832,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -9963,152 +10012,152 @@
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.625" style="1"/>
+    <col min="1" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="47" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="44" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="39"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -14445,158 +14494,158 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5949A1-8B95-4D70-B4DD-69A3B154C943}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="O72" sqref="O72:P72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="3.625" style="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.625" style="1"/>
+    <col min="1" max="3" width="3.6640625" style="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="47" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="44" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="39"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -17612,19 +17661,27 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>119</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>115</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16"/>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
@@ -17654,19 +17711,29 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>116</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -17696,19 +17763,27 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="15">
+        <v>3</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>122</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16"/>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -17738,19 +17813,27 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>4</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>121</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>118</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16"/>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
@@ -18947,154 +19030,154 @@
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="3.625" style="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.625" style="1"/>
+    <col min="1" max="3" width="3.6640625" style="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-      <c r="V1" s="33"/>
-      <c r="W1" s="33" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="33"/>
-      <c r="Y1" s="33"/>
-      <c r="Z1" s="33"/>
-      <c r="AA1" s="33"/>
-      <c r="AB1" s="33"/>
-      <c r="AC1" s="33"/>
-      <c r="AD1" s="33"/>
-      <c r="AE1" s="33"/>
-      <c r="AF1" s="47" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="27"/>
-      <c r="H2" s="27"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="42" t="s">
+      <c r="A2" s="29"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="43"/>
-      <c r="O2" s="43"/>
-      <c r="P2" s="43"/>
-      <c r="Q2" s="43"/>
-      <c r="R2" s="43"/>
-      <c r="S2" s="43"/>
-      <c r="T2" s="43"/>
-      <c r="U2" s="43"/>
-      <c r="V2" s="43"/>
-      <c r="W2" s="43" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="43"/>
-      <c r="Y2" s="43"/>
-      <c r="Z2" s="43"/>
-      <c r="AA2" s="43"/>
-      <c r="AB2" s="43"/>
-      <c r="AC2" s="43"/>
-      <c r="AD2" s="43"/>
-      <c r="AE2" s="43"/>
-      <c r="AF2" s="44" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="47" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="44"/>
-      <c r="AH2" s="45"/>
-      <c r="AI2" s="45"/>
-      <c r="AJ2" s="45"/>
-      <c r="AK2" s="45"/>
-      <c r="AL2" s="45"/>
-      <c r="AM2" s="45"/>
-      <c r="AN2" s="46"/>
+      <c r="AG2" s="47"/>
+      <c r="AH2" s="48"/>
+      <c r="AI2" s="48"/>
+      <c r="AJ2" s="48"/>
+      <c r="AK2" s="48"/>
+      <c r="AL2" s="48"/>
+      <c r="AM2" s="48"/>
+      <c r="AN2" s="49"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="38"/>
-      <c r="P3" s="38"/>
-      <c r="Q3" s="38"/>
-      <c r="R3" s="38"/>
-      <c r="S3" s="38"/>
-      <c r="T3" s="38"/>
-      <c r="U3" s="38"/>
-      <c r="V3" s="38"/>
-      <c r="W3" s="38"/>
-      <c r="X3" s="38"/>
-      <c r="Y3" s="38"/>
-      <c r="Z3" s="38"/>
-      <c r="AA3" s="38"/>
-      <c r="AB3" s="38"/>
-      <c r="AC3" s="38"/>
-      <c r="AD3" s="38"/>
-      <c r="AE3" s="38"/>
-      <c r="AF3" s="38"/>
-      <c r="AG3" s="38"/>
-      <c r="AH3" s="38"/>
-      <c r="AI3" s="38"/>
-      <c r="AJ3" s="38"/>
-      <c r="AK3" s="38"/>
-      <c r="AL3" s="38"/>
-      <c r="AM3" s="38"/>
-      <c r="AN3" s="39"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="40"/>
+      <c r="O3" s="41"/>
+      <c r="P3" s="41"/>
+      <c r="Q3" s="41"/>
+      <c r="R3" s="41"/>
+      <c r="S3" s="41"/>
+      <c r="T3" s="41"/>
+      <c r="U3" s="41"/>
+      <c r="V3" s="41"/>
+      <c r="W3" s="41"/>
+      <c r="X3" s="41"/>
+      <c r="Y3" s="41"/>
+      <c r="Z3" s="41"/>
+      <c r="AA3" s="41"/>
+      <c r="AB3" s="41"/>
+      <c r="AC3" s="41"/>
+      <c r="AD3" s="41"/>
+      <c r="AE3" s="41"/>
+      <c r="AF3" s="41"/>
+      <c r="AG3" s="41"/>
+      <c r="AH3" s="41"/>
+      <c r="AI3" s="41"/>
+      <c r="AJ3" s="41"/>
+      <c r="AK3" s="41"/>
+      <c r="AL3" s="41"/>
+      <c r="AM3" s="41"/>
+      <c r="AN3" s="42"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -23454,65 +23537,65 @@
       <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="3.625" style="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.625" style="1"/>
+    <col min="1" max="3" width="3.6640625" style="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="47" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -23521,60 +23604,60 @@
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="52"/>
       <c r="O3" s="53"/>
       <c r="P3" s="53"/>
@@ -27735,65 +27818,65 @@
       <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="3.625" style="1"/>
-    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.625" style="1"/>
+    <col min="1" max="3" width="3.6640625" style="1"/>
+    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="47" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -27802,60 +27885,60 @@
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="52"/>
       <c r="O3" s="53"/>
       <c r="P3" s="53"/>
@@ -31982,6 +32065,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -31992,11 +32080,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32016,66 +32099,66 @@
       <selection activeCell="W64" sqref="W64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="1"/>
-    <col min="3" max="3" width="3.625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="3.6640625" style="1"/>
+    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.625" style="1"/>
+    <col min="5" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="47" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -32084,60 +32167,60 @@
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="52"/>
       <c r="O3" s="53"/>
       <c r="P3" s="53"/>
@@ -32373,7 +32456,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="AM10" s="22"/>
-      <c r="AN10" s="55"/>
+      <c r="AN10" s="23"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
@@ -32399,7 +32482,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="AM11" s="22"/>
-      <c r="AN11" s="55"/>
+      <c r="AN11" s="23"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -32425,7 +32508,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="AM12" s="22"/>
-      <c r="AN12" s="55"/>
+      <c r="AN12" s="23"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
@@ -32449,7 +32532,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="AM13" s="22"/>
-      <c r="AN13" s="55"/>
+      <c r="AN13" s="23"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
@@ -32473,7 +32556,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="AM14" s="22"/>
-      <c r="AN14" s="55"/>
+      <c r="AN14" s="23"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
@@ -32497,7 +32580,7 @@
       <c r="U15" s="22"/>
       <c r="V15" s="22"/>
       <c r="AM15" s="22"/>
-      <c r="AN15" s="55"/>
+      <c r="AN15" s="23"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
@@ -32535,7 +32618,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
-      <c r="AN16" s="56"/>
+      <c r="AN16" s="24"/>
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
@@ -32573,7 +32656,7 @@
       <c r="AK17" s="22"/>
       <c r="AL17" s="22"/>
       <c r="AM17" s="22"/>
-      <c r="AN17" s="55"/>
+      <c r="AN17" s="23"/>
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
@@ -32611,7 +32694,7 @@
       <c r="AK18" s="22"/>
       <c r="AL18" s="22"/>
       <c r="AM18" s="22"/>
-      <c r="AN18" s="55"/>
+      <c r="AN18" s="23"/>
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
@@ -32649,7 +32732,7 @@
       <c r="AK19" s="22"/>
       <c r="AL19" s="22"/>
       <c r="AM19" s="22"/>
-      <c r="AN19" s="55"/>
+      <c r="AN19" s="23"/>
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
@@ -32687,7 +32770,7 @@
       <c r="AK20" s="22"/>
       <c r="AL20" s="22"/>
       <c r="AM20" s="22"/>
-      <c r="AN20" s="55"/>
+      <c r="AN20" s="23"/>
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
@@ -32725,7 +32808,7 @@
       <c r="AK21" s="22"/>
       <c r="AL21" s="22"/>
       <c r="AM21" s="22"/>
-      <c r="AN21" s="55"/>
+      <c r="AN21" s="23"/>
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
@@ -32763,7 +32846,7 @@
       <c r="AK22" s="22"/>
       <c r="AL22" s="22"/>
       <c r="AM22" s="22"/>
-      <c r="AN22" s="55"/>
+      <c r="AN22" s="23"/>
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
@@ -32801,7 +32884,7 @@
       <c r="AK23" s="22"/>
       <c r="AL23" s="22"/>
       <c r="AM23" s="22"/>
-      <c r="AN23" s="55"/>
+      <c r="AN23" s="23"/>
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
@@ -32839,7 +32922,7 @@
       <c r="AK24" s="22"/>
       <c r="AL24" s="22"/>
       <c r="AM24" s="22"/>
-      <c r="AN24" s="55"/>
+      <c r="AN24" s="23"/>
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
@@ -32877,7 +32960,7 @@
       <c r="AK25" s="22"/>
       <c r="AL25" s="22"/>
       <c r="AM25" s="22"/>
-      <c r="AN25" s="55"/>
+      <c r="AN25" s="23"/>
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
@@ -32915,7 +32998,7 @@
       <c r="AK26" s="22"/>
       <c r="AL26" s="22"/>
       <c r="AM26" s="22"/>
-      <c r="AN26" s="55"/>
+      <c r="AN26" s="23"/>
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
@@ -32953,7 +33036,7 @@
       <c r="AK27" s="22"/>
       <c r="AL27" s="22"/>
       <c r="AM27" s="22"/>
-      <c r="AN27" s="55"/>
+      <c r="AN27" s="23"/>
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
@@ -32991,7 +33074,7 @@
       <c r="AK28" s="22"/>
       <c r="AL28" s="22"/>
       <c r="AM28" s="22"/>
-      <c r="AN28" s="55"/>
+      <c r="AN28" s="23"/>
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
@@ -33029,7 +33112,7 @@
       <c r="AK29" s="22"/>
       <c r="AL29" s="22"/>
       <c r="AM29" s="22"/>
-      <c r="AN29" s="55"/>
+      <c r="AN29" s="23"/>
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
@@ -33069,7 +33152,7 @@
       <c r="AK30" s="22"/>
       <c r="AL30" s="22"/>
       <c r="AM30" s="22"/>
-      <c r="AN30" s="55"/>
+      <c r="AN30" s="23"/>
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
@@ -33109,7 +33192,7 @@
       <c r="AK31" s="22"/>
       <c r="AL31" s="22"/>
       <c r="AM31" s="22"/>
-      <c r="AN31" s="55"/>
+      <c r="AN31" s="23"/>
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
@@ -33149,7 +33232,7 @@
       <c r="AK32" s="22"/>
       <c r="AL32" s="22"/>
       <c r="AM32" s="22"/>
-      <c r="AN32" s="55"/>
+      <c r="AN32" s="23"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
@@ -33189,7 +33272,7 @@
       <c r="AK33" s="22"/>
       <c r="AL33" s="22"/>
       <c r="AM33" s="22"/>
-      <c r="AN33" s="55"/>
+      <c r="AN33" s="23"/>
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
@@ -33229,7 +33312,7 @@
       <c r="AK34" s="22"/>
       <c r="AL34" s="22"/>
       <c r="AM34" s="22"/>
-      <c r="AN34" s="55"/>
+      <c r="AN34" s="23"/>
     </row>
     <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
@@ -33269,7 +33352,7 @@
       <c r="AK35" s="22"/>
       <c r="AL35" s="22"/>
       <c r="AM35" s="22"/>
-      <c r="AN35" s="55"/>
+      <c r="AN35" s="23"/>
     </row>
     <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
@@ -33309,7 +33392,7 @@
       <c r="AK36" s="22"/>
       <c r="AL36" s="22"/>
       <c r="AM36" s="22"/>
-      <c r="AN36" s="55"/>
+      <c r="AN36" s="23"/>
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
@@ -33351,7 +33434,7 @@
       <c r="AK37" s="22"/>
       <c r="AL37" s="22"/>
       <c r="AM37" s="22"/>
-      <c r="AN37" s="55"/>
+      <c r="AN37" s="23"/>
     </row>
     <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
@@ -33950,7 +34033,7 @@
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
     </row>
-    <row r="52" spans="1:40" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:40" ht="9.6" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="1" t="s">
@@ -33993,7 +34076,7 @@
       <c r="AM52" s="7"/>
       <c r="AN52" s="7"/>
     </row>
-    <row r="53" spans="1:40" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:40" ht="9.6" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="1" t="s">
@@ -34125,7 +34208,7 @@
     <row r="56" spans="1:40" ht="21.75" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
-      <c r="D56" s="57" t="s">
+      <c r="D56" s="25" t="s">
         <v>96</v>
       </c>
       <c r="E56" s="22" t="s">
@@ -36448,6 +36531,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -36455,14 +36545,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -36478,71 +36561,71 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F79806-5528-402D-A1EA-E6249CCE207F}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.625" style="1"/>
-    <col min="3" max="3" width="3.625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="3.625" style="1"/>
+    <col min="1" max="2" width="3.6640625" style="1"/>
+    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.6640625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="24"/>
-      <c r="H1" s="24"/>
-      <c r="I1" s="24"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="32" t="s">
+      <c r="B1" s="27"/>
+      <c r="C1" s="27"/>
+      <c r="D1" s="27"/>
+      <c r="E1" s="27"/>
+      <c r="F1" s="27"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-      <c r="V1" s="32"/>
-      <c r="W1" s="32" t="s">
+      <c r="L1" s="35"/>
+      <c r="M1" s="35"/>
+      <c r="N1" s="35"/>
+      <c r="O1" s="35"/>
+      <c r="P1" s="35"/>
+      <c r="Q1" s="35"/>
+      <c r="R1" s="35"/>
+      <c r="S1" s="35"/>
+      <c r="T1" s="35"/>
+      <c r="U1" s="35"/>
+      <c r="V1" s="35"/>
+      <c r="W1" s="35" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="32"/>
-      <c r="Y1" s="32"/>
-      <c r="Z1" s="32"/>
-      <c r="AA1" s="32"/>
-      <c r="AB1" s="32"/>
-      <c r="AC1" s="32"/>
-      <c r="AD1" s="32"/>
-      <c r="AE1" s="32"/>
-      <c r="AF1" s="47" t="s">
+      <c r="X1" s="35"/>
+      <c r="Y1" s="35"/>
+      <c r="Z1" s="35"/>
+      <c r="AA1" s="35"/>
+      <c r="AB1" s="35"/>
+      <c r="AC1" s="35"/>
+      <c r="AD1" s="35"/>
+      <c r="AE1" s="35"/>
+      <c r="AF1" s="50" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="47"/>
-      <c r="AH1" s="40"/>
-      <c r="AI1" s="40"/>
-      <c r="AJ1" s="40"/>
-      <c r="AK1" s="40"/>
-      <c r="AL1" s="40"/>
-      <c r="AM1" s="40"/>
-      <c r="AN1" s="41"/>
+      <c r="AG1" s="50"/>
+      <c r="AH1" s="43"/>
+      <c r="AI1" s="43"/>
+      <c r="AJ1" s="43"/>
+      <c r="AK1" s="43"/>
+      <c r="AL1" s="43"/>
+      <c r="AM1" s="43"/>
+      <c r="AN1" s="44"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="26"/>
+      <c r="A2" s="29"/>
       <c r="B2" s="51"/>
       <c r="C2" s="51"/>
       <c r="D2" s="51"/>
@@ -36551,60 +36634,60 @@
       <c r="G2" s="51"/>
       <c r="H2" s="51"/>
       <c r="I2" s="51"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="42" t="s">
+      <c r="J2" s="31"/>
+      <c r="K2" s="45" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="42"/>
-      <c r="M2" s="42"/>
-      <c r="N2" s="42"/>
-      <c r="O2" s="42"/>
-      <c r="P2" s="42"/>
-      <c r="Q2" s="42"/>
-      <c r="R2" s="42"/>
-      <c r="S2" s="42"/>
-      <c r="T2" s="42"/>
-      <c r="U2" s="42"/>
-      <c r="V2" s="42"/>
-      <c r="W2" s="42" t="s">
+      <c r="L2" s="45"/>
+      <c r="M2" s="45"/>
+      <c r="N2" s="45"/>
+      <c r="O2" s="45"/>
+      <c r="P2" s="45"/>
+      <c r="Q2" s="45"/>
+      <c r="R2" s="45"/>
+      <c r="S2" s="45"/>
+      <c r="T2" s="45"/>
+      <c r="U2" s="45"/>
+      <c r="V2" s="45"/>
+      <c r="W2" s="45" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="42"/>
-      <c r="Y2" s="42"/>
-      <c r="Z2" s="42"/>
-      <c r="AA2" s="42"/>
-      <c r="AB2" s="42"/>
-      <c r="AC2" s="42"/>
-      <c r="AD2" s="42"/>
-      <c r="AE2" s="42"/>
-      <c r="AF2" s="48" t="s">
+      <c r="X2" s="45"/>
+      <c r="Y2" s="45"/>
+      <c r="Z2" s="45"/>
+      <c r="AA2" s="45"/>
+      <c r="AB2" s="45"/>
+      <c r="AC2" s="45"/>
+      <c r="AD2" s="45"/>
+      <c r="AE2" s="45"/>
+      <c r="AF2" s="55" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AG2" s="55"/>
+      <c r="AH2" s="56"/>
+      <c r="AI2" s="56"/>
+      <c r="AJ2" s="56"/>
+      <c r="AK2" s="56"/>
+      <c r="AL2" s="56"/>
+      <c r="AM2" s="56"/>
+      <c r="AN2" s="57"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="29"/>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="34" t="s">
+      <c r="A3" s="32"/>
+      <c r="B3" s="33"/>
+      <c r="C3" s="33"/>
+      <c r="D3" s="33"/>
+      <c r="E3" s="33"/>
+      <c r="F3" s="33"/>
+      <c r="G3" s="33"/>
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="37" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="35"/>
-      <c r="M3" s="36"/>
+      <c r="L3" s="38"/>
+      <c r="M3" s="39"/>
       <c r="N3" s="52"/>
       <c r="O3" s="53"/>
       <c r="P3" s="53"/>
@@ -36840,7 +36923,7 @@
       <c r="U10" s="22"/>
       <c r="V10" s="22"/>
       <c r="AM10" s="22"/>
-      <c r="AN10" s="55"/>
+      <c r="AN10" s="23"/>
     </row>
     <row r="11" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="6"/>
@@ -36866,7 +36949,7 @@
       <c r="U11" s="22"/>
       <c r="V11" s="22"/>
       <c r="AM11" s="22"/>
-      <c r="AN11" s="55"/>
+      <c r="AN11" s="23"/>
     </row>
     <row r="12" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A12" s="6"/>
@@ -36892,7 +36975,7 @@
       <c r="U12" s="22"/>
       <c r="V12" s="22"/>
       <c r="AM12" s="22"/>
-      <c r="AN12" s="55"/>
+      <c r="AN12" s="23"/>
     </row>
     <row r="13" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="6"/>
@@ -36916,7 +36999,7 @@
       <c r="U13" s="22"/>
       <c r="V13" s="22"/>
       <c r="AM13" s="22"/>
-      <c r="AN13" s="55"/>
+      <c r="AN13" s="23"/>
     </row>
     <row r="14" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A14" s="6"/>
@@ -36940,7 +37023,7 @@
       <c r="U14" s="22"/>
       <c r="V14" s="22"/>
       <c r="AM14" s="22"/>
-      <c r="AN14" s="55"/>
+      <c r="AN14" s="23"/>
     </row>
     <row r="15" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="6"/>
@@ -36964,7 +37047,7 @@
       <c r="U15" s="22"/>
       <c r="V15" s="22"/>
       <c r="AM15" s="22"/>
-      <c r="AN15" s="55"/>
+      <c r="AN15" s="23"/>
     </row>
     <row r="16" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="6"/>
@@ -37002,7 +37085,7 @@
       <c r="AK16" s="2"/>
       <c r="AL16" s="2"/>
       <c r="AM16" s="2"/>
-      <c r="AN16" s="56"/>
+      <c r="AN16" s="24"/>
     </row>
     <row r="17" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="6"/>
@@ -37040,7 +37123,7 @@
       <c r="AK17" s="22"/>
       <c r="AL17" s="22"/>
       <c r="AM17" s="22"/>
-      <c r="AN17" s="55"/>
+      <c r="AN17" s="23"/>
     </row>
     <row r="18" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A18" s="6"/>
@@ -37078,7 +37161,7 @@
       <c r="AK18" s="22"/>
       <c r="AL18" s="22"/>
       <c r="AM18" s="22"/>
-      <c r="AN18" s="55"/>
+      <c r="AN18" s="23"/>
     </row>
     <row r="19" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A19" s="6"/>
@@ -37116,7 +37199,7 @@
       <c r="AK19" s="22"/>
       <c r="AL19" s="22"/>
       <c r="AM19" s="22"/>
-      <c r="AN19" s="55"/>
+      <c r="AN19" s="23"/>
     </row>
     <row r="20" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A20" s="6"/>
@@ -37154,7 +37237,7 @@
       <c r="AK20" s="22"/>
       <c r="AL20" s="22"/>
       <c r="AM20" s="22"/>
-      <c r="AN20" s="55"/>
+      <c r="AN20" s="23"/>
     </row>
     <row r="21" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A21" s="6"/>
@@ -37192,7 +37275,7 @@
       <c r="AK21" s="22"/>
       <c r="AL21" s="22"/>
       <c r="AM21" s="22"/>
-      <c r="AN21" s="55"/>
+      <c r="AN21" s="23"/>
     </row>
     <row r="22" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A22" s="6"/>
@@ -37230,7 +37313,7 @@
       <c r="AK22" s="22"/>
       <c r="AL22" s="22"/>
       <c r="AM22" s="22"/>
-      <c r="AN22" s="55"/>
+      <c r="AN22" s="23"/>
     </row>
     <row r="23" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="6"/>
@@ -37268,7 +37351,7 @@
       <c r="AK23" s="22"/>
       <c r="AL23" s="22"/>
       <c r="AM23" s="22"/>
-      <c r="AN23" s="55"/>
+      <c r="AN23" s="23"/>
     </row>
     <row r="24" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A24" s="6"/>
@@ -37306,7 +37389,7 @@
       <c r="AK24" s="22"/>
       <c r="AL24" s="22"/>
       <c r="AM24" s="22"/>
-      <c r="AN24" s="55"/>
+      <c r="AN24" s="23"/>
     </row>
     <row r="25" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A25" s="6"/>
@@ -37344,7 +37427,7 @@
       <c r="AK25" s="22"/>
       <c r="AL25" s="22"/>
       <c r="AM25" s="22"/>
-      <c r="AN25" s="55"/>
+      <c r="AN25" s="23"/>
     </row>
     <row r="26" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A26" s="6"/>
@@ -37382,7 +37465,7 @@
       <c r="AK26" s="22"/>
       <c r="AL26" s="22"/>
       <c r="AM26" s="22"/>
-      <c r="AN26" s="55"/>
+      <c r="AN26" s="23"/>
     </row>
     <row r="27" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A27" s="6"/>
@@ -37420,7 +37503,7 @@
       <c r="AK27" s="22"/>
       <c r="AL27" s="22"/>
       <c r="AM27" s="22"/>
-      <c r="AN27" s="55"/>
+      <c r="AN27" s="23"/>
     </row>
     <row r="28" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="6"/>
@@ -37458,7 +37541,7 @@
       <c r="AK28" s="22"/>
       <c r="AL28" s="22"/>
       <c r="AM28" s="22"/>
-      <c r="AN28" s="55"/>
+      <c r="AN28" s="23"/>
     </row>
     <row r="29" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="6"/>
@@ -37496,7 +37579,7 @@
       <c r="AK29" s="22"/>
       <c r="AL29" s="22"/>
       <c r="AM29" s="22"/>
-      <c r="AN29" s="55"/>
+      <c r="AN29" s="23"/>
     </row>
     <row r="30" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A30" s="6"/>
@@ -37536,7 +37619,7 @@
       <c r="AK30" s="22"/>
       <c r="AL30" s="22"/>
       <c r="AM30" s="22"/>
-      <c r="AN30" s="55"/>
+      <c r="AN30" s="23"/>
     </row>
     <row r="31" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A31" s="6"/>
@@ -37576,7 +37659,7 @@
       <c r="AK31" s="22"/>
       <c r="AL31" s="22"/>
       <c r="AM31" s="22"/>
-      <c r="AN31" s="55"/>
+      <c r="AN31" s="23"/>
     </row>
     <row r="32" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A32" s="6"/>
@@ -37616,7 +37699,7 @@
       <c r="AK32" s="22"/>
       <c r="AL32" s="22"/>
       <c r="AM32" s="22"/>
-      <c r="AN32" s="55"/>
+      <c r="AN32" s="23"/>
     </row>
     <row r="33" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A33" s="6"/>
@@ -37656,7 +37739,7 @@
       <c r="AK33" s="22"/>
       <c r="AL33" s="22"/>
       <c r="AM33" s="22"/>
-      <c r="AN33" s="55"/>
+      <c r="AN33" s="23"/>
     </row>
     <row r="34" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A34" s="6"/>
@@ -37696,7 +37779,7 @@
       <c r="AK34" s="22"/>
       <c r="AL34" s="22"/>
       <c r="AM34" s="22"/>
-      <c r="AN34" s="55"/>
+      <c r="AN34" s="23"/>
     </row>
     <row r="35" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A35" s="6"/>
@@ -37736,7 +37819,7 @@
       <c r="AK35" s="22"/>
       <c r="AL35" s="22"/>
       <c r="AM35" s="22"/>
-      <c r="AN35" s="55"/>
+      <c r="AN35" s="23"/>
     </row>
     <row r="36" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A36" s="6"/>
@@ -37776,7 +37859,7 @@
       <c r="AK36" s="22"/>
       <c r="AL36" s="22"/>
       <c r="AM36" s="22"/>
-      <c r="AN36" s="55"/>
+      <c r="AN36" s="23"/>
     </row>
     <row r="37" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A37" s="6"/>
@@ -37818,7 +37901,7 @@
       <c r="AK37" s="22"/>
       <c r="AL37" s="22"/>
       <c r="AM37" s="22"/>
-      <c r="AN37" s="55"/>
+      <c r="AN37" s="23"/>
     </row>
     <row r="38" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A38" s="6"/>
@@ -38415,13 +38498,13 @@
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
     </row>
-    <row r="52" spans="1:40" ht="31.5" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:40" ht="28.8" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="22" t="s">
         <v>106</v>
       </c>
-      <c r="E52" s="57" t="s">
+      <c r="E52" s="25" t="s">
         <v>107</v>
       </c>
       <c r="F52" s="22" t="s">
@@ -38462,7 +38545,7 @@
       <c r="AM52" s="7"/>
       <c r="AN52" s="7"/>
     </row>
-    <row r="53" spans="1:40" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:40" ht="9.6" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="E53" s="22" t="s">
@@ -38590,7 +38673,7 @@
       <c r="AM55" s="7"/>
       <c r="AN55" s="7"/>
     </row>
-    <row r="56" spans="1:40" ht="10.5" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:40" ht="9.6" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="1" t="s">
@@ -40902,6 +40985,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -40909,14 +40999,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/documents/外部設計/外部設計書_D2.xlsx
+++ b/documents/外部設計/外部設計書_D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2AA14070-8157-43D6-95B6-EDA87AE7F24D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC080D-8E5A-4A30-A955-D43F94C5B10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="456" yWindow="144" windowWidth="21660" windowHeight="12492" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="139">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1290,6 +1290,95 @@
   </si>
   <si>
     <t>String</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>question</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>answer</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ansarea</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>answered</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>others</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ranking</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>file</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>質問内容</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンナイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回答ボタン</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>最新の回答</t>
+    <rPh sb="0" eb="2">
+      <t>サイシン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>その他の回答</t>
+    <rPh sb="2" eb="3">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>カイトウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>人気の質問</t>
+    <rPh sb="0" eb="2">
+      <t>ニンキ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シツモン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>添付ファイル</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回答記入フォーム</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>キニュウ</t>
+    </rPh>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -10012,9 +10101,9 @@
       <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -14494,15 +14583,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5949A1-8B95-4D70-B4DD-69A3B154C943}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A73" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="O72" sqref="O72:P72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="3.6640625" style="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="3" width="3.625" style="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -19026,15 +19115,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6004294-4002-4A39-8BA4-A6BAA901B5F2}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A34" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="3.6640625" style="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="3" width="3.625" style="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -22202,19 +22291,27 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16"/>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
@@ -22244,19 +22341,27 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>126</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>133</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16"/>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -22286,19 +22391,27 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="15">
+        <v>3</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>127</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>138</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16"/>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -22328,19 +22441,27 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>4</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>128</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>134</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16"/>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
@@ -22370,19 +22491,27 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>129</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>135</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16"/>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>
@@ -22412,19 +22541,27 @@
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
       <c r="B84" s="14"/>
-      <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
+      <c r="C84" s="15">
+        <v>6</v>
+      </c>
+      <c r="D84" s="16" t="s">
+        <v>130</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>136</v>
+      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16"/>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
-      <c r="O84" s="16"/>
+      <c r="O84" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
@@ -22454,19 +22591,27 @@
     <row r="85" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A85" s="6"/>
       <c r="B85" s="14"/>
-      <c r="C85" s="15"/>
-      <c r="D85" s="16"/>
+      <c r="C85" s="15">
+        <v>7</v>
+      </c>
+      <c r="D85" s="16" t="s">
+        <v>131</v>
+      </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
-      <c r="H85" s="16"/>
+      <c r="H85" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
       <c r="K85" s="19"/>
       <c r="L85" s="16"/>
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
-      <c r="O85" s="16"/>
+      <c r="O85" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
       <c r="R85" s="19"/>
@@ -23537,11 +23682,11 @@
       <selection activeCell="K63" sqref="K63"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="3.6640625" style="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="3" width="3.625" style="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -27818,11 +27963,11 @@
       <selection activeCell="M49" sqref="M49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="3" width="3.6640625" style="1"/>
-    <col min="4" max="4" width="8.88671875" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="3" width="3.625" style="1"/>
+    <col min="4" max="4" width="8.875" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -32065,11 +32210,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -32080,6 +32220,11 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32099,12 +32244,12 @@
       <selection activeCell="W64" sqref="W64"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.6640625" style="1"/>
-    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
+    <col min="1" max="2" width="3.625" style="1"/>
+    <col min="3" max="3" width="3.625" style="1" customWidth="1"/>
     <col min="4" max="4" width="10" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="3.6640625" style="1"/>
+    <col min="5" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -34033,7 +34178,7 @@
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
     </row>
-    <row r="52" spans="1:40" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:40" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="1" t="s">
@@ -34076,7 +34221,7 @@
       <c r="AM52" s="7"/>
       <c r="AN52" s="7"/>
     </row>
-    <row r="53" spans="1:40" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:40" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="1" t="s">
@@ -36565,13 +36710,13 @@
       <selection activeCell="G44" sqref="G44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="3.6640625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="2" width="3.6640625" style="1"/>
-    <col min="3" max="3" width="3.6640625" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.33203125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.44140625" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="3.6640625" style="1"/>
+    <col min="1" max="2" width="3.625" style="1"/>
+    <col min="3" max="3" width="3.625" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="3.625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
@@ -38498,7 +38643,7 @@
       <c r="AM51" s="7"/>
       <c r="AN51" s="7"/>
     </row>
-    <row r="52" spans="1:40" ht="28.8" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:40" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="22" t="s">
@@ -38545,7 +38690,7 @@
       <c r="AM52" s="7"/>
       <c r="AN52" s="7"/>
     </row>
-    <row r="53" spans="1:40" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:40" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="E53" s="22" t="s">
@@ -38673,7 +38818,7 @@
       <c r="AM55" s="7"/>
       <c r="AN55" s="7"/>
     </row>
-    <row r="56" spans="1:40" ht="9.6" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:40" ht="10.5" x14ac:dyDescent="0.15">
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="1" t="s">

--- a/documents/外部設計/外部設計書_D2.xlsx
+++ b/documents/外部設計/外部設計書_D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23DC080D-8E5A-4A30-A955-D43F94C5B10D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90C5DEC-FED0-41E2-BBEE-49E4FD22C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="148">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1380,6 +1380,33 @@
       <t>キニュウ</t>
     </rPh>
     <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>メールアドレス</t>
+  </si>
+  <si>
+    <t>textbox</t>
+  </si>
+  <si>
+    <t>String</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>パスワード</t>
+  </si>
+  <si>
+    <t>login</t>
+  </si>
+  <si>
+    <t>ログイン</t>
+  </si>
+  <si>
+    <t>submit</t>
   </si>
 </sst>
 </file>
@@ -10097,8 +10124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="B31" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="L49" sqref="L49"/>
+    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -13252,19 +13279,29 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>139</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>140</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>141</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
@@ -13294,19 +13331,29 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>143</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>144</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>141</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -13336,16 +13383,24 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="15">
+        <v>3</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>145</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>146</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>147</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16"/>
@@ -19115,7 +19170,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6004294-4002-4A39-8BA4-A6BAA901B5F2}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A76" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="N80" sqref="N80"/>
     </sheetView>
   </sheetViews>
@@ -32210,6 +32265,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -32220,11 +32280,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/documents/外部設計/外部設計書_D2.xlsx
+++ b/documents/外部設計/外部設計書_D2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F90C5DEC-FED0-41E2-BBEE-49E4FD22C9C9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E889F97C-3112-4507-AF19-9F048EE566F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="345" yWindow="1275" windowWidth="12180" windowHeight="9450" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="148">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="161">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1408,6 +1408,64 @@
   <si>
     <t>submit</t>
   </si>
+  <si>
+    <t>title</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>label</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>category</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カテゴリー</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>textbox</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>attachment</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>??</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>regist</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>update</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1416,7 +1474,7 @@
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="yyyy/mm/dd"/>
   </numFmts>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="ＭＳ Ｐゴシック"/>
@@ -1460,6 +1518,14 @@
       <name val="ＭＳ ゴシック"/>
       <family val="3"/>
       <charset val="128"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <color rgb="FF202124"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="2">
@@ -1792,7 +1858,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1956,6 +2022,9 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -10124,7 +10193,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B70" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView topLeftCell="B58" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
       <selection activeCell="I86" sqref="I86"/>
     </sheetView>
   </sheetViews>
@@ -23733,8 +23802,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543040C3-1FBD-44BA-919F-2D6A0B445CBD}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K63" sqref="K63"/>
+    <sheetView topLeftCell="A75" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="Q90" sqref="Q90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -26683,25 +26752,39 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
-      <c r="S79" s="16"/>
+      <c r="S79" s="16">
+        <v>0</v>
+      </c>
       <c r="T79" s="19"/>
-      <c r="U79" s="16"/>
+      <c r="U79" s="16">
+        <v>20</v>
+      </c>
       <c r="V79" s="19"/>
       <c r="W79" s="16"/>
       <c r="X79" s="17"/>
@@ -26725,19 +26808,29 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -26767,25 +26860,39 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="15">
+        <v>3</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
-      <c r="S81" s="16"/>
+      <c r="S81" s="16">
+        <v>0</v>
+      </c>
       <c r="T81" s="19"/>
-      <c r="U81" s="16"/>
+      <c r="U81" s="16">
+        <v>1000</v>
+      </c>
       <c r="V81" s="19"/>
       <c r="W81" s="16"/>
       <c r="X81" s="17"/>
@@ -26809,16 +26916,24 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>4</v>
+      </c>
+      <c r="D82" s="58" t="s">
+        <v>154</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>155</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16"/>
@@ -26851,16 +26966,24 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>156</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>157</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16"/>
@@ -28014,8 +28137,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B57A2D6-8E27-4368-AED8-E7F89AB612AC}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="M49" sqref="M49"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C79" sqref="C79:U83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30964,25 +31087,39 @@
     <row r="79" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A79" s="6"/>
       <c r="B79" s="14"/>
-      <c r="C79" s="15"/>
-      <c r="D79" s="16"/>
+      <c r="C79" s="15">
+        <v>1</v>
+      </c>
+      <c r="D79" s="16" t="s">
+        <v>148</v>
+      </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
-      <c r="H79" s="16"/>
+      <c r="H79" s="16" t="s">
+        <v>149</v>
+      </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
-      <c r="L79" s="16"/>
+      <c r="L79" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
-      <c r="O79" s="16"/>
+      <c r="O79" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
       <c r="R79" s="19"/>
-      <c r="S79" s="16"/>
+      <c r="S79" s="16">
+        <v>0</v>
+      </c>
       <c r="T79" s="19"/>
-      <c r="U79" s="16"/>
+      <c r="U79" s="16">
+        <v>20</v>
+      </c>
       <c r="V79" s="19"/>
       <c r="W79" s="16"/>
       <c r="X79" s="17"/>
@@ -31006,19 +31143,29 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="15">
+        <v>2</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>151</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>152</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -31048,25 +31195,39 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="15">
+        <v>3</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>125</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>132</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>153</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
-      <c r="S81" s="16"/>
+      <c r="S81" s="16">
+        <v>0</v>
+      </c>
       <c r="T81" s="19"/>
-      <c r="U81" s="16"/>
+      <c r="U81" s="16">
+        <v>1000</v>
+      </c>
       <c r="V81" s="19"/>
       <c r="W81" s="16"/>
       <c r="X81" s="17"/>
@@ -31090,16 +31251,24 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>4</v>
+      </c>
+      <c r="D82" s="58" t="s">
+        <v>154</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>137</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>155</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16"/>
@@ -31132,16 +31301,24 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>159</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>160</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>158</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16"/>
@@ -32265,11 +32442,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -32280,6 +32452,11 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/documents/外部設計/外部設計書_D2.xlsx
+++ b/documents/外部設計/外部設計書_D2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E889F97C-3112-4507-AF19-9F048EE566F7}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19974EE-3F3D-48F4-BA5C-40FED327C93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="1275" windowWidth="12180" windowHeight="9450" firstSheet="3" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="質問内容表示ページ" sheetId="4" r:id="rId3"/>
     <sheet name="登録ページ" sheetId="5" r:id="rId4"/>
     <sheet name="更新ページ " sheetId="6" r:id="rId5"/>
-    <sheet name="履歴ページ" sheetId="7" r:id="rId6"/>
+    <sheet name="履歴ページ" sheetId="9" r:id="rId6"/>
     <sheet name="ヘッダー・フッター" sheetId="8" r:id="rId7"/>
   </sheets>
   <definedNames>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="338" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="170">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1466,6 +1466,63 @@
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>qlog</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>alog</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回答一覧</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>イチラン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カテゴリ選択</t>
+    <rPh sb="4" eb="6">
+      <t>センタク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>qcontents</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>質問概要</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>?</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>acontents</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>回答概要</t>
+    <rPh sb="0" eb="2">
+      <t>カイトウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ガイヨウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -1927,6 +1984,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2022,9 +2082,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -8316,7 +8373,7 @@
         <xdr:cNvPr id="2" name="テキスト ボックス 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C34691B9-F056-4BCA-B2EB-9BDC0B14198F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8ABEFEF-A805-49D0-AD6A-A7DB024957CD}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8383,7 +8440,7 @@
         <xdr:cNvPr id="3" name="正方形/長方形 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8567A1FD-03B1-4C9A-BB90-BB8E6B1BC654}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3D91CD34-8587-41F9-8D1D-6C9CA1EE71C8}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8441,7 +8498,7 @@
         <xdr:cNvPr id="4" name="正方形/長方形 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B13C01A-8F47-431F-A0DE-C06EEB97206A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B8ADED48-D011-490E-9BDF-7B22E90BFC31}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8502,7 +8559,7 @@
         <xdr:cNvPr id="5" name="テキスト ボックス 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E11ED529-BE58-4B05-9B08-21A3D9D3DEBC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1F94BFAF-DB3F-4D6D-8A80-0315CDDEF967}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8684,7 +8741,7 @@
         <xdr:cNvPr id="6" name="テキスト ボックス 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{16A8B6FE-98BC-4084-B6F1-7E83934DB20B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5C47345F-C472-4D62-A6E8-07926371543C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8771,7 +8828,7 @@
         <xdr:cNvPr id="7" name="直線コネクタ 6">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1E8CF9EE-E852-47D4-A170-B90BEB1D8855}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{385F3804-8EA5-4D6A-BBD9-84A0933E83CF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8826,7 +8883,7 @@
         <xdr:cNvPr id="8" name="直線コネクタ 7">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6A8DCA1-FD64-4840-B57D-D3878255C4CC}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E2695887-FB13-4FE2-94CE-AF680813BCF5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8881,7 +8938,7 @@
         <xdr:cNvPr id="9" name="直線コネクタ 8">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{44E9B473-2174-4135-83FD-839EE97A569B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3DD6BFAB-89F3-4EA0-97BF-2FC1A2096B0B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8931,7 +8988,7 @@
         <xdr:cNvPr id="10" name="テキスト ボックス 9">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D4B9C8D3-864D-4B8F-AB83-91E867963E63}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8BF56ED2-C79E-4E8D-AACD-EFFB126790C7}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -8993,7 +9050,7 @@
         <xdr:cNvPr id="11" name="テキスト ボックス 10">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ADA97056-2C1B-464E-926F-5AFCAA754023}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2358ED5A-2001-4560-8ECC-EB31C947B59C}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9055,7 +9112,7 @@
         <xdr:cNvPr id="12" name="テキスト ボックス 11">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E76163B1-CFAC-48D6-B60E-0CE3BD5AFD11}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10366730-8D0E-45A4-B4A5-25F913376337}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9117,7 +9174,7 @@
         <xdr:cNvPr id="13" name="テキスト ボックス 12">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{37D06753-9F18-40D0-B882-ECE776E1C818}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BDBDB6BA-3CCB-459D-BAA4-D141DFF8B923}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9184,7 +9241,7 @@
         <xdr:cNvPr id="14" name="四角形: 上の 2 つの角を切り取る 13">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F9F4BF7B-07C4-4901-AF11-FD050664546B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4002D1A8-00B3-4939-AA44-F196F31136D5}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9245,7 +9302,7 @@
         <xdr:cNvPr id="15" name="四角形: 上の 2 つの角を切り取る 14">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{09EC96E6-4717-4016-A133-5AFFD281AE8F}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25ECC5E6-2E5D-48B2-AAFB-8569E0974FBB}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -9306,7 +9363,7 @@
         <xdr:cNvPr id="16" name="正方形/長方形 15">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{02A9751C-2879-4C83-B5B6-59A061B8593B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28F7968B-18FC-417F-8104-2D3F490EE9B1}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -10203,146 +10260,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -14719,146 +14776,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -19251,146 +19308,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="36"/>
-      <c r="O1" s="36"/>
-      <c r="P1" s="36"/>
-      <c r="Q1" s="36"/>
-      <c r="R1" s="36"/>
-      <c r="S1" s="36"/>
-      <c r="T1" s="36"/>
-      <c r="U1" s="36"/>
-      <c r="V1" s="36"/>
-      <c r="W1" s="36" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="37"/>
+      <c r="Q1" s="37"/>
+      <c r="R1" s="37"/>
+      <c r="S1" s="37"/>
+      <c r="T1" s="37"/>
+      <c r="U1" s="37"/>
+      <c r="V1" s="37"/>
+      <c r="W1" s="37" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
-      <c r="Z1" s="36"/>
-      <c r="AA1" s="36"/>
-      <c r="AB1" s="36"/>
-      <c r="AC1" s="36"/>
-      <c r="AD1" s="36"/>
-      <c r="AE1" s="36"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="37"/>
+      <c r="Y1" s="37"/>
+      <c r="Z1" s="37"/>
+      <c r="AA1" s="37"/>
+      <c r="AB1" s="37"/>
+      <c r="AC1" s="37"/>
+      <c r="AD1" s="37"/>
+      <c r="AE1" s="37"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="30"/>
-      <c r="C2" s="30"/>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="31"/>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="46"/>
-      <c r="O2" s="46"/>
-      <c r="P2" s="46"/>
-      <c r="Q2" s="46"/>
-      <c r="R2" s="46"/>
-      <c r="S2" s="46"/>
-      <c r="T2" s="46"/>
-      <c r="U2" s="46"/>
-      <c r="V2" s="46"/>
-      <c r="W2" s="46" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="47"/>
+      <c r="O2" s="47"/>
+      <c r="P2" s="47"/>
+      <c r="Q2" s="47"/>
+      <c r="R2" s="47"/>
+      <c r="S2" s="47"/>
+      <c r="T2" s="47"/>
+      <c r="U2" s="47"/>
+      <c r="V2" s="47"/>
+      <c r="W2" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
-      <c r="Z2" s="46"/>
-      <c r="AA2" s="46"/>
-      <c r="AB2" s="46"/>
-      <c r="AC2" s="46"/>
-      <c r="AD2" s="46"/>
-      <c r="AE2" s="46"/>
-      <c r="AF2" s="47" t="s">
+      <c r="X2" s="47"/>
+      <c r="Y2" s="47"/>
+      <c r="Z2" s="47"/>
+      <c r="AA2" s="47"/>
+      <c r="AB2" s="47"/>
+      <c r="AC2" s="47"/>
+      <c r="AD2" s="47"/>
+      <c r="AE2" s="47"/>
+      <c r="AF2" s="48" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="47"/>
-      <c r="AH2" s="48"/>
-      <c r="AI2" s="48"/>
-      <c r="AJ2" s="48"/>
-      <c r="AK2" s="48"/>
-      <c r="AL2" s="48"/>
-      <c r="AM2" s="48"/>
-      <c r="AN2" s="49"/>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="50"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="40"/>
-      <c r="O3" s="41"/>
-      <c r="P3" s="41"/>
-      <c r="Q3" s="41"/>
-      <c r="R3" s="41"/>
-      <c r="S3" s="41"/>
-      <c r="T3" s="41"/>
-      <c r="U3" s="41"/>
-      <c r="V3" s="41"/>
-      <c r="W3" s="41"/>
-      <c r="X3" s="41"/>
-      <c r="Y3" s="41"/>
-      <c r="Z3" s="41"/>
-      <c r="AA3" s="41"/>
-      <c r="AB3" s="41"/>
-      <c r="AC3" s="41"/>
-      <c r="AD3" s="41"/>
-      <c r="AE3" s="41"/>
-      <c r="AF3" s="41"/>
-      <c r="AG3" s="41"/>
-      <c r="AH3" s="41"/>
-      <c r="AI3" s="41"/>
-      <c r="AJ3" s="41"/>
-      <c r="AK3" s="41"/>
-      <c r="AL3" s="41"/>
-      <c r="AM3" s="41"/>
-      <c r="AN3" s="42"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="41"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="42"/>
+      <c r="AE3" s="42"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="42"/>
+      <c r="AJ3" s="42"/>
+      <c r="AK3" s="42"/>
+      <c r="AL3" s="42"/>
+      <c r="AM3" s="42"/>
+      <c r="AN3" s="43"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -23814,146 +23871,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="55" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="58"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="54"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="55"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -26919,7 +26976,7 @@
       <c r="C82" s="15">
         <v>4</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="D82" s="26" t="s">
         <v>154</v>
       </c>
       <c r="E82" s="17"/>
@@ -28137,7 +28194,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B57A2D6-8E27-4368-AED8-E7F89AB612AC}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C79" sqref="C79:U83"/>
     </sheetView>
   </sheetViews>
@@ -28149,146 +28206,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="55" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="58"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="54"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="55"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -31254,7 +31311,7 @@
       <c r="C82" s="15">
         <v>4</v>
       </c>
-      <c r="D82" s="58" t="s">
+      <c r="D82" s="26" t="s">
         <v>154</v>
       </c>
       <c r="E82" s="17"/>
@@ -32442,6 +32499,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -32452,11 +32514,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32469,11 +32526,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E147BF5F-3742-4DF3-B3DB-B0A7B84FB5D3}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F20ABC-47D1-4F8E-B8C8-736277399044}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="82" zoomScaleNormal="82" workbookViewId="0">
-      <selection activeCell="W64" sqref="W64"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -32485,146 +32542,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="55" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="58"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="54"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="55"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -35606,20 +35663,30 @@
     </row>
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
-      <c r="B80" s="14"/>
+      <c r="B80" s="14">
+        <v>1</v>
+      </c>
       <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
+      <c r="D80" s="16" t="s">
+        <v>161</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>117</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -35648,20 +35715,30 @@
     </row>
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
-      <c r="B81" s="14"/>
+      <c r="B81" s="14">
+        <v>2</v>
+      </c>
       <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
+      <c r="D81" s="16" t="s">
+        <v>162</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>163</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -35690,20 +35767,30 @@
     </row>
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
-      <c r="B82" s="14"/>
+      <c r="B82" s="14">
+        <v>3</v>
+      </c>
       <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="D82" s="16" t="s">
+        <v>120</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>164</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
-      <c r="L82" s="16"/>
+      <c r="L82" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
-      <c r="O82" s="16"/>
+      <c r="O82" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
       <c r="R82" s="19"/>
@@ -35732,20 +35819,30 @@
     </row>
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
-      <c r="B83" s="14"/>
+      <c r="B83" s="14">
+        <v>4</v>
+      </c>
       <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="D83" s="16" t="s">
+        <v>165</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>166</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>167</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>
@@ -35774,20 +35871,30 @@
     </row>
     <row r="84" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A84" s="6"/>
-      <c r="B84" s="14"/>
+      <c r="B84" s="14">
+        <v>5</v>
+      </c>
       <c r="C84" s="15"/>
-      <c r="D84" s="16"/>
+      <c r="D84" s="16" t="s">
+        <v>168</v>
+      </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
-      <c r="H84" s="16"/>
+      <c r="H84" s="16" t="s">
+        <v>169</v>
+      </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
-      <c r="L84" s="16"/>
+      <c r="L84" s="16" t="s">
+        <v>167</v>
+      </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
-      <c r="O84" s="16"/>
+      <c r="O84" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
       <c r="R84" s="19"/>
@@ -36908,13 +37015,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -36922,7 +37022,14 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -36952,146 +37059,146 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="35" t="s">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="36" t="s">
         <v>0</v>
       </c>
-      <c r="L1" s="35"/>
-      <c r="M1" s="35"/>
-      <c r="N1" s="35"/>
-      <c r="O1" s="35"/>
-      <c r="P1" s="35"/>
-      <c r="Q1" s="35"/>
-      <c r="R1" s="35"/>
-      <c r="S1" s="35"/>
-      <c r="T1" s="35"/>
-      <c r="U1" s="35"/>
-      <c r="V1" s="35"/>
-      <c r="W1" s="35" t="s">
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
+      <c r="N1" s="36"/>
+      <c r="O1" s="36"/>
+      <c r="P1" s="36"/>
+      <c r="Q1" s="36"/>
+      <c r="R1" s="36"/>
+      <c r="S1" s="36"/>
+      <c r="T1" s="36"/>
+      <c r="U1" s="36"/>
+      <c r="V1" s="36"/>
+      <c r="W1" s="36" t="s">
         <v>7</v>
       </c>
-      <c r="X1" s="35"/>
-      <c r="Y1" s="35"/>
-      <c r="Z1" s="35"/>
-      <c r="AA1" s="35"/>
-      <c r="AB1" s="35"/>
-      <c r="AC1" s="35"/>
-      <c r="AD1" s="35"/>
-      <c r="AE1" s="35"/>
-      <c r="AF1" s="50" t="s">
+      <c r="X1" s="36"/>
+      <c r="Y1" s="36"/>
+      <c r="Z1" s="36"/>
+      <c r="AA1" s="36"/>
+      <c r="AB1" s="36"/>
+      <c r="AC1" s="36"/>
+      <c r="AD1" s="36"/>
+      <c r="AE1" s="36"/>
+      <c r="AF1" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="50"/>
-      <c r="AH1" s="43"/>
-      <c r="AI1" s="43"/>
-      <c r="AJ1" s="43"/>
-      <c r="AK1" s="43"/>
-      <c r="AL1" s="43"/>
-      <c r="AM1" s="43"/>
-      <c r="AN1" s="44"/>
+      <c r="AG1" s="51"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="44"/>
+      <c r="AK1" s="44"/>
+      <c r="AL1" s="44"/>
+      <c r="AM1" s="44"/>
+      <c r="AN1" s="45"/>
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="29"/>
-      <c r="B2" s="51"/>
-      <c r="C2" s="51"/>
-      <c r="D2" s="51"/>
-      <c r="E2" s="51"/>
-      <c r="F2" s="51"/>
-      <c r="G2" s="51"/>
-      <c r="H2" s="51"/>
-      <c r="I2" s="51"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="45" t="s">
+      <c r="A2" s="30"/>
+      <c r="B2" s="52"/>
+      <c r="C2" s="52"/>
+      <c r="D2" s="52"/>
+      <c r="E2" s="52"/>
+      <c r="F2" s="52"/>
+      <c r="G2" s="52"/>
+      <c r="H2" s="52"/>
+      <c r="I2" s="52"/>
+      <c r="J2" s="32"/>
+      <c r="K2" s="46" t="s">
         <v>2</v>
       </c>
-      <c r="L2" s="45"/>
-      <c r="M2" s="45"/>
-      <c r="N2" s="45"/>
-      <c r="O2" s="45"/>
-      <c r="P2" s="45"/>
-      <c r="Q2" s="45"/>
-      <c r="R2" s="45"/>
-      <c r="S2" s="45"/>
-      <c r="T2" s="45"/>
-      <c r="U2" s="45"/>
-      <c r="V2" s="45"/>
-      <c r="W2" s="45" t="s">
+      <c r="L2" s="46"/>
+      <c r="M2" s="46"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46" t="s">
         <v>1</v>
       </c>
-      <c r="X2" s="45"/>
-      <c r="Y2" s="45"/>
-      <c r="Z2" s="45"/>
-      <c r="AA2" s="45"/>
-      <c r="AB2" s="45"/>
-      <c r="AC2" s="45"/>
-      <c r="AD2" s="45"/>
-      <c r="AE2" s="45"/>
-      <c r="AF2" s="55" t="s">
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="46"/>
+      <c r="AA2" s="46"/>
+      <c r="AB2" s="46"/>
+      <c r="AC2" s="46"/>
+      <c r="AD2" s="46"/>
+      <c r="AE2" s="46"/>
+      <c r="AF2" s="56" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="55"/>
-      <c r="AH2" s="56"/>
-      <c r="AI2" s="56"/>
-      <c r="AJ2" s="56"/>
-      <c r="AK2" s="56"/>
-      <c r="AL2" s="56"/>
-      <c r="AM2" s="56"/>
-      <c r="AN2" s="57"/>
+      <c r="AG2" s="56"/>
+      <c r="AH2" s="57"/>
+      <c r="AI2" s="57"/>
+      <c r="AJ2" s="57"/>
+      <c r="AK2" s="57"/>
+      <c r="AL2" s="57"/>
+      <c r="AM2" s="57"/>
+      <c r="AN2" s="58"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="32"/>
-      <c r="B3" s="33"/>
-      <c r="C3" s="33"/>
-      <c r="D3" s="33"/>
-      <c r="E3" s="33"/>
-      <c r="F3" s="33"/>
-      <c r="G3" s="33"/>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="37" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="35"/>
+      <c r="K3" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="L3" s="38"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="52"/>
-      <c r="O3" s="53"/>
-      <c r="P3" s="53"/>
-      <c r="Q3" s="53"/>
-      <c r="R3" s="53"/>
-      <c r="S3" s="53"/>
-      <c r="T3" s="53"/>
-      <c r="U3" s="53"/>
-      <c r="V3" s="53"/>
-      <c r="W3" s="53"/>
-      <c r="X3" s="53"/>
-      <c r="Y3" s="53"/>
-      <c r="Z3" s="53"/>
-      <c r="AA3" s="53"/>
-      <c r="AB3" s="53"/>
-      <c r="AC3" s="53"/>
-      <c r="AD3" s="53"/>
-      <c r="AE3" s="53"/>
-      <c r="AF3" s="53"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="53"/>
-      <c r="AI3" s="53"/>
-      <c r="AJ3" s="53"/>
-      <c r="AK3" s="53"/>
-      <c r="AL3" s="53"/>
-      <c r="AM3" s="53"/>
-      <c r="AN3" s="54"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="40"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="54"/>
+      <c r="P3" s="54"/>
+      <c r="Q3" s="54"/>
+      <c r="R3" s="54"/>
+      <c r="S3" s="54"/>
+      <c r="T3" s="54"/>
+      <c r="U3" s="54"/>
+      <c r="V3" s="54"/>
+      <c r="W3" s="54"/>
+      <c r="X3" s="54"/>
+      <c r="Y3" s="54"/>
+      <c r="Z3" s="54"/>
+      <c r="AA3" s="54"/>
+      <c r="AB3" s="54"/>
+      <c r="AC3" s="54"/>
+      <c r="AD3" s="54"/>
+      <c r="AE3" s="54"/>
+      <c r="AF3" s="54"/>
+      <c r="AG3" s="54"/>
+      <c r="AH3" s="54"/>
+      <c r="AI3" s="54"/>
+      <c r="AJ3" s="54"/>
+      <c r="AK3" s="54"/>
+      <c r="AL3" s="54"/>
+      <c r="AM3" s="54"/>
+      <c r="AN3" s="55"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>

--- a/documents/外部設計/外部設計書_D2.xlsx
+++ b/documents/外部設計/外部設計書_D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C19974EE-3F3D-48F4-BA5C-40FED327C93A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{891522A1-DD5D-4EDF-A1D8-C59B702023BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="178">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -1521,6 +1521,38 @@
     <rPh sb="2" eb="4">
       <t>ガイヨウ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>logo&amp;aplication</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>navigation</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>top page button</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>fotter</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ロゴ・アプリ</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ナビゲーション</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ページトップボタン</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>フッター</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -32499,11 +32531,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -32514,6 +32541,11 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -32529,7 +32561,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F20ABC-47D1-4F8E-B8C8-736277399044}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+    <sheetView topLeftCell="A58" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
       <selection activeCell="L85" sqref="L85"/>
     </sheetView>
   </sheetViews>
@@ -37015,6 +37047,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -37022,14 +37061,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -37045,8 +37077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F79806-5528-402D-A1EA-E6249CCE207F}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A79" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G44" sqref="G44"/>
+    <sheetView tabSelected="1" topLeftCell="A77" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O83" sqref="O83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -40168,19 +40200,29 @@
     <row r="80" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A80" s="6"/>
       <c r="B80" s="14"/>
-      <c r="C80" s="15"/>
-      <c r="D80" s="16"/>
+      <c r="C80" s="15">
+        <v>1</v>
+      </c>
+      <c r="D80" s="16" t="s">
+        <v>170</v>
+      </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
-      <c r="H80" s="16"/>
+      <c r="H80" s="16" t="s">
+        <v>174</v>
+      </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
-      <c r="L80" s="16"/>
+      <c r="L80" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
-      <c r="O80" s="16"/>
+      <c r="O80" s="16" t="s">
+        <v>124</v>
+      </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
       <c r="R80" s="19"/>
@@ -40210,19 +40252,29 @@
     <row r="81" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A81" s="6"/>
       <c r="B81" s="14"/>
-      <c r="C81" s="15"/>
-      <c r="D81" s="16"/>
+      <c r="C81" s="15">
+        <v>2</v>
+      </c>
+      <c r="D81" s="16" t="s">
+        <v>171</v>
+      </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
-      <c r="H81" s="16"/>
+      <c r="H81" s="16" t="s">
+        <v>175</v>
+      </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
-      <c r="L81" s="16"/>
+      <c r="L81" s="16" t="s">
+        <v>123</v>
+      </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
-      <c r="O81" s="16"/>
+      <c r="O81" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
       <c r="R81" s="19"/>
@@ -40252,12 +40304,18 @@
     <row r="82" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A82" s="6"/>
       <c r="B82" s="14"/>
-      <c r="C82" s="15"/>
-      <c r="D82" s="16"/>
+      <c r="C82" s="15">
+        <v>3</v>
+      </c>
+      <c r="D82" s="16" t="s">
+        <v>172</v>
+      </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
-      <c r="H82" s="16"/>
+      <c r="H82" s="16" t="s">
+        <v>176</v>
+      </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
@@ -40294,19 +40352,29 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>4</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>173</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>177</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
-      <c r="L83" s="16"/>
+      <c r="L83" s="16" t="s">
+        <v>150</v>
+      </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
-      <c r="O83" s="16"/>
+      <c r="O83" s="16" t="s">
+        <v>142</v>
+      </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
       <c r="R83" s="19"/>

--- a/documents/外部設計/外部設計書_D2.xlsx
+++ b/documents/外部設計/外部設計書_D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B159353C-A2A2-4E58-9F92-009C166E5279}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A823CF5-6471-40D1-A0EA-EFA12DA11EC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="490" uniqueCount="220">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -877,22 +877,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>添付ファイルが追加されていた場合、表示する。</t>
-    <rPh sb="0" eb="2">
-      <t>テンプ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>ツイカ</t>
-    </rPh>
-    <rPh sb="14" eb="16">
-      <t>バアイ</t>
-    </rPh>
-    <rPh sb="17" eb="19">
-      <t>ヒョウジ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>更新内容を入力する。</t>
     <rPh sb="0" eb="4">
       <t>コウシンナイヨウ</t>
@@ -1220,10 +1204,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>ソート</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>質問一覧</t>
     <rPh sb="0" eb="4">
       <t>シツモンイチラン</t>
@@ -1399,10 +1379,6 @@
   </si>
   <si>
     <t>textbox</t>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>??</t>
     <phoneticPr fontId="4"/>
   </si>
   <si>
@@ -1625,16 +1601,6 @@
     <phoneticPr fontId="4"/>
   </si>
   <si>
-    <t>任意でファイル添付ができる</t>
-    <rPh sb="0" eb="2">
-      <t>ニンイ</t>
-    </rPh>
-    <rPh sb="7" eb="9">
-      <t>テンプ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
     <t>「５．回答履歴概要」</t>
     <phoneticPr fontId="4"/>
   </si>
@@ -1814,6 +1780,126 @@
     </rPh>
     <rPh sb="15" eb="17">
       <t>センイ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>メールアドレス・PWが間違っている場合、アラートで警告</t>
+    <rPh sb="11" eb="13">
+      <t>マチガ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>ケイコク</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>ステータス</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>status</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>カテゴリーはOR検索、キーワードは＆検索</t>
+    <rPh sb="8" eb="10">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>(keyword1 and keyword2 … )　AND　(category1 or category2 …)</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録されたカテゴリーを表示し、更新する場合は書き換える。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>登録されていたタイトルを表示し、更新する場合は書き換える。</t>
+    <rPh sb="0" eb="2">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="20" eb="22">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="23" eb="24">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>添付ファイルが登録されていた場合、表示する。</t>
+  </si>
+  <si>
+    <t>添付ファイルが登録されていた場合、表示する。</t>
+    <rPh sb="0" eb="2">
+      <t>テンプ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>トウロク</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>更新する場合は改めてファイルを選択し、上書きする。</t>
+  </si>
+  <si>
+    <t>更新する場合は改めてファイルを選択し、上書きする。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシン</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>バアイ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>アラタ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>センタク</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ウワガ</t>
     </rPh>
     <phoneticPr fontId="4"/>
   </si>
@@ -14316,8 +14402,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="B73" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U81" sqref="U81"/>
+    <sheetView topLeftCell="B22" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -16526,7 +16612,9 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="C57" s="10"/>
-      <c r="D57" s="10"/>
+      <c r="D57" s="10" t="s">
+        <v>209</v>
+      </c>
       <c r="E57" s="9"/>
       <c r="F57" s="9"/>
       <c r="G57" s="9"/>
@@ -17475,24 +17563,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -17529,24 +17617,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -17583,19 +17671,19 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
@@ -18834,8 +18922,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5949A1-8B95-4D70-B4DD-69A3B154C943}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="O72" sqref="O72:P72"/>
+    <sheetView topLeftCell="A70" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="S64" sqref="S64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21266,7 +21354,9 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="C62" s="10"/>
-      <c r="D62" s="10"/>
+      <c r="D62" s="10" t="s">
+        <v>212</v>
+      </c>
       <c r="E62" s="9"/>
       <c r="F62" s="9"/>
       <c r="G62" s="9"/>
@@ -21308,7 +21398,9 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="C63" s="10"/>
-      <c r="D63" s="10"/>
+      <c r="D63" s="10" t="s">
+        <v>213</v>
+      </c>
       <c r="E63" s="9"/>
       <c r="F63" s="9"/>
       <c r="G63" s="9"/>
@@ -22005,13 +22097,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
@@ -22020,7 +22112,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -22055,24 +22147,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>117</v>
+        <v>211</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>113</v>
+        <v>210</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -22107,13 +22199,13 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
@@ -22122,7 +22214,7 @@
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -22157,13 +22249,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -22172,7 +22264,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -23366,7 +23458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6004294-4002-4A39-8BA4-A6BAA901B5F2}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="X70" sqref="X70"/>
     </sheetView>
   </sheetViews>
@@ -25336,7 +25428,7 @@
       <c r="R51" s="9"/>
       <c r="S51" s="9"/>
       <c r="T51" s="9" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="U51" s="9"/>
       <c r="V51" s="9"/>
@@ -25382,7 +25474,7 @@
       <c r="R52" s="9"/>
       <c r="S52" s="9"/>
       <c r="T52" s="9" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="U52" s="9"/>
       <c r="V52" s="9"/>
@@ -25452,7 +25544,7 @@
       <c r="B54" s="6"/>
       <c r="C54" s="10"/>
       <c r="D54" s="10" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
@@ -25470,7 +25562,7 @@
       <c r="R54" s="8"/>
       <c r="S54" s="9"/>
       <c r="T54" s="9" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="U54" s="9"/>
       <c r="V54" s="9"/>
@@ -25516,7 +25608,7 @@
       <c r="R55" s="8"/>
       <c r="S55" s="9"/>
       <c r="T55" s="9" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="U55" s="9"/>
       <c r="V55" s="9"/>
@@ -25604,7 +25696,7 @@
       <c r="R57" s="9"/>
       <c r="S57" s="9"/>
       <c r="T57" s="9" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="U57" s="9"/>
       <c r="V57" s="9"/>
@@ -25650,7 +25742,7 @@
       <c r="R58" s="9"/>
       <c r="S58" s="9"/>
       <c r="T58" s="9" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="U58" s="9"/>
       <c r="V58" s="9"/>
@@ -25737,7 +25829,7 @@
       <c r="R60" s="9"/>
       <c r="S60" s="9"/>
       <c r="T60" s="9" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="U60" s="9"/>
       <c r="V60" s="9"/>
@@ -25783,7 +25875,7 @@
       <c r="R61" s="9"/>
       <c r="S61" s="9"/>
       <c r="T61" s="9" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="U61" s="9"/>
       <c r="V61" s="9"/>
@@ -25870,7 +25962,7 @@
       <c r="R63" s="9"/>
       <c r="S63" s="9"/>
       <c r="T63" s="9" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="U63" s="9"/>
       <c r="V63" s="9"/>
@@ -25916,7 +26008,7 @@
       <c r="R64" s="9"/>
       <c r="S64" s="9"/>
       <c r="T64" s="9" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="U64" s="9"/>
       <c r="V64" s="9"/>
@@ -26004,7 +26096,7 @@
       <c r="R66" s="9"/>
       <c r="S66" s="9"/>
       <c r="T66" s="9" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="U66" s="9"/>
       <c r="V66" s="9"/>
@@ -26050,7 +26142,7 @@
       <c r="R67" s="9"/>
       <c r="S67" s="9"/>
       <c r="T67" s="9" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="U67" s="9"/>
       <c r="V67" s="9"/>
@@ -26138,7 +26230,7 @@
       <c r="R69" s="9"/>
       <c r="S69" s="9"/>
       <c r="T69" s="9" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="U69" s="9"/>
       <c r="V69" s="9"/>
@@ -26184,7 +26276,7 @@
       <c r="R70" s="9"/>
       <c r="S70" s="9"/>
       <c r="T70" s="9" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="U70" s="9"/>
       <c r="V70" s="9"/>
@@ -26212,7 +26304,7 @@
       <c r="B71" s="6"/>
       <c r="C71" s="10"/>
       <c r="D71" s="10" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="E71" s="9"/>
       <c r="F71" s="9"/>
@@ -26574,13 +26666,13 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
@@ -26589,7 +26681,7 @@
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -26624,24 +26716,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -26676,24 +26768,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -26728,13 +26820,13 @@
         <v>4</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -26743,7 +26835,7 @@
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -26778,24 +26870,24 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -26830,24 +26922,24 @@
         <v>6</v>
       </c>
       <c r="D84" s="16" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -26882,13 +26974,13 @@
         <v>7</v>
       </c>
       <c r="D85" s="16" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="E85" s="17"/>
       <c r="F85" s="17"/>
       <c r="G85" s="15"/>
       <c r="H85" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I85" s="18"/>
       <c r="J85" s="17"/>
@@ -26897,7 +26989,7 @@
       <c r="M85" s="17"/>
       <c r="N85" s="19"/>
       <c r="O85" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P85" s="17"/>
       <c r="Q85" s="17"/>
@@ -26932,19 +27024,19 @@
         <v>8</v>
       </c>
       <c r="D86" s="16" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="E86" s="17"/>
       <c r="F86" s="17"/>
       <c r="G86" s="15"/>
       <c r="H86" s="16" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="I86" s="18"/>
       <c r="J86" s="17"/>
       <c r="K86" s="19"/>
       <c r="L86" s="16" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="M86" s="17"/>
       <c r="N86" s="19"/>
@@ -26982,13 +27074,13 @@
         <v>9</v>
       </c>
       <c r="D87" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="E87" s="17"/>
       <c r="F87" s="17"/>
       <c r="G87" s="15"/>
       <c r="H87" s="16" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="I87" s="18"/>
       <c r="J87" s="17"/>
@@ -26997,7 +27089,7 @@
       <c r="M87" s="17"/>
       <c r="N87" s="19"/>
       <c r="O87" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P87" s="17"/>
       <c r="Q87" s="17"/>
@@ -27007,13 +27099,13 @@
       <c r="U87" s="16"/>
       <c r="V87" s="19"/>
       <c r="W87" s="16" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="X87" s="17"/>
       <c r="Y87" s="17"/>
       <c r="Z87" s="19"/>
       <c r="AA87" s="16" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="AB87" s="17"/>
       <c r="AC87" s="19"/>
@@ -27985,8 +28077,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543040C3-1FBD-44BA-919F-2D6A0B445CBD}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AC74" sqref="AC74"/>
+    <sheetView topLeftCell="A69" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -30939,24 +31031,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -30970,13 +31062,13 @@
       </c>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
@@ -30999,24 +31091,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -31026,13 +31118,13 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -31055,24 +31147,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -31086,13 +31178,13 @@
       </c>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -31115,24 +31207,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -31142,13 +31234,13 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -31171,19 +31263,19 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
@@ -32338,8 +32430,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97949B7C-61CA-4DAF-966C-BC13BB1A9DFF}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AA82" sqref="AA82"/>
+    <sheetView topLeftCell="A82" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="L83" sqref="L83"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33951,7 +34043,7 @@
       <c r="B47" s="6"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -33993,7 +34085,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="D48" s="22" t="s">
-        <v>83</v>
+        <v>215</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -34116,7 +34208,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -34158,7 +34250,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="22" t="s">
-        <v>81</v>
+        <v>214</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -34282,7 +34374,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
@@ -34406,7 +34498,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="22" t="s">
-        <v>79</v>
+        <v>217</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -34448,7 +34540,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="22" t="s">
-        <v>66</v>
+        <v>219</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
@@ -35292,24 +35384,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -35323,13 +35415,13 @@
       </c>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
@@ -35352,24 +35444,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -35379,13 +35471,13 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -35408,24 +35500,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -35439,13 +35531,13 @@
       </c>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -35468,24 +35560,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -35495,13 +35587,13 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -35524,19 +35616,19 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
@@ -36661,6 +36753,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
+    <mergeCell ref="K3:M3"/>
+    <mergeCell ref="N3:AN3"/>
     <mergeCell ref="AH1:AN1"/>
     <mergeCell ref="K2:M2"/>
     <mergeCell ref="N2:V2"/>
@@ -36668,14 +36767,7 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
-    <mergeCell ref="K3:M3"/>
-    <mergeCell ref="N3:AN3"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -36691,8 +36783,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B57A2D6-8E27-4368-AED8-E7F89AB612AC}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J55" sqref="J55"/>
+    <sheetView topLeftCell="A70" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -38304,7 +38396,7 @@
       <c r="B47" s="6"/>
       <c r="C47" s="22"/>
       <c r="D47" s="22" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -38346,7 +38438,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="D48" s="22" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -38469,7 +38561,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="22" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -38511,7 +38603,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="22" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -38635,7 +38727,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="22" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
@@ -38759,7 +38851,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="22" t="s">
-        <v>191</v>
+        <v>216</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -38800,7 +38892,9 @@
     <row r="59" spans="1:39" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
-      <c r="D59" s="22"/>
+      <c r="D59" s="22" t="s">
+        <v>218</v>
+      </c>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
       <c r="G59" s="22"/>
@@ -39643,24 +39737,24 @@
         <v>1</v>
       </c>
       <c r="D79" s="16" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E79" s="17"/>
       <c r="F79" s="17"/>
       <c r="G79" s="15"/>
       <c r="H79" s="16" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="I79" s="18"/>
       <c r="J79" s="17"/>
       <c r="K79" s="19"/>
       <c r="L79" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M79" s="17"/>
       <c r="N79" s="19"/>
       <c r="O79" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P79" s="17"/>
       <c r="Q79" s="17"/>
@@ -39674,13 +39768,13 @@
       </c>
       <c r="V79" s="19"/>
       <c r="W79" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X79" s="17"/>
       <c r="Y79" s="17"/>
       <c r="Z79" s="19"/>
       <c r="AA79" s="16" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="AB79" s="17"/>
       <c r="AC79" s="19"/>
@@ -39703,24 +39797,24 @@
         <v>2</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -39730,13 +39824,13 @@
       <c r="U80" s="16"/>
       <c r="V80" s="19"/>
       <c r="W80" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X80" s="17"/>
       <c r="Y80" s="17"/>
       <c r="Z80" s="19"/>
       <c r="AA80" s="16" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="AB80" s="17"/>
       <c r="AC80" s="19"/>
@@ -39759,24 +39853,24 @@
         <v>3</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -39790,13 +39884,13 @@
       </c>
       <c r="V81" s="19"/>
       <c r="W81" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X81" s="17"/>
       <c r="Y81" s="17"/>
       <c r="Z81" s="19"/>
       <c r="AA81" s="16" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="AB81" s="17"/>
       <c r="AC81" s="19"/>
@@ -39819,24 +39913,24 @@
         <v>4</v>
       </c>
       <c r="D82" s="26" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -39846,13 +39940,13 @@
       <c r="U82" s="16"/>
       <c r="V82" s="19"/>
       <c r="W82" s="16" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="X82" s="17"/>
       <c r="Y82" s="17"/>
       <c r="Z82" s="19"/>
       <c r="AA82" s="16" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="AB82" s="17"/>
       <c r="AC82" s="19"/>
@@ -39875,19 +39969,19 @@
         <v>5</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
@@ -41012,6 +41106,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -41022,11 +41121,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -41042,8 +41136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F20ABC-47D1-4F8E-B8C8-736277399044}">
   <dimension ref="A1:CA110"/>
   <sheetViews>
-    <sheetView topLeftCell="A76" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
-      <selection activeCell="W61" sqref="W61:X61"/>
+    <sheetView topLeftCell="A73" zoomScale="86" zoomScaleNormal="86" workbookViewId="0">
+      <selection activeCell="L84" sqref="L84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -43558,7 +43652,7 @@
       <c r="B45" s="6"/>
       <c r="C45" s="22"/>
       <c r="D45" s="22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E45" s="22"/>
       <c r="F45" s="22"/>
@@ -43644,7 +43738,7 @@
       <c r="B47" s="6"/>
       <c r="C47" s="22"/>
       <c r="D47" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -43659,7 +43753,7 @@
       <c r="O47" s="22"/>
       <c r="P47" s="22"/>
       <c r="Q47" s="22" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="R47" s="22"/>
       <c r="S47" s="22"/>
@@ -43689,7 +43783,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="D48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -43704,7 +43798,7 @@
       <c r="O48" s="22"/>
       <c r="P48" s="22"/>
       <c r="Q48" s="22" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="R48" s="22"/>
       <c r="S48" s="22"/>
@@ -43734,7 +43828,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
@@ -43789,7 +43883,7 @@
       <c r="O50" s="22"/>
       <c r="P50" s="22"/>
       <c r="Q50" s="22" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="R50" s="22"/>
       <c r="S50" s="22"/>
@@ -43819,7 +43913,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -43834,7 +43928,7 @@
       <c r="O51" s="22"/>
       <c r="P51" s="22"/>
       <c r="Q51" s="22" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="R51" s="22"/>
       <c r="S51" s="22"/>
@@ -43864,7 +43958,7 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E52" s="22"/>
       <c r="F52" s="22"/>
@@ -43907,7 +44001,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="D53" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="E53" s="22"/>
       <c r="F53" s="22"/>
@@ -43950,7 +44044,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -43993,7 +44087,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
@@ -44036,7 +44130,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="25" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E56" s="22" t="s">
         <v>36</v>
@@ -44121,7 +44215,7 @@
       <c r="A58" s="6"/>
       <c r="B58" s="6"/>
       <c r="D58" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E58" s="22"/>
       <c r="F58" s="22"/>
@@ -44207,7 +44301,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="D60" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -44290,7 +44384,7 @@
       <c r="A62" s="6"/>
       <c r="B62" s="6"/>
       <c r="D62" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="E62" s="22"/>
       <c r="F62" s="22"/>
@@ -44333,7 +44427,7 @@
       <c r="A63" s="6"/>
       <c r="B63" s="6"/>
       <c r="D63" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="E63" s="22"/>
       <c r="F63" s="22"/>
@@ -44419,7 +44513,7 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="D65" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="E65" s="22"/>
       <c r="F65" s="22"/>
@@ -44502,7 +44596,7 @@
       <c r="A67" s="6"/>
       <c r="B67" s="6"/>
       <c r="D67" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="E67" s="22"/>
       <c r="F67" s="22"/>
@@ -44545,7 +44639,7 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="D68" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="E68" s="22"/>
       <c r="F68" s="22"/>
@@ -44628,7 +44722,7 @@
       <c r="A70" s="6"/>
       <c r="B70" s="6"/>
       <c r="D70" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="E70" s="22"/>
       <c r="F70" s="22"/>
@@ -44671,7 +44765,7 @@
       <c r="A71" s="6"/>
       <c r="B71" s="6"/>
       <c r="D71" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="E71" s="22"/>
       <c r="F71" s="22"/>
@@ -45073,24 +45167,24 @@
       </c>
       <c r="C80" s="15"/>
       <c r="D80" s="16" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -45125,24 +45219,24 @@
       </c>
       <c r="C81" s="15"/>
       <c r="D81" s="16" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -45177,24 +45271,24 @@
       </c>
       <c r="C82" s="15"/>
       <c r="D82" s="16" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
       <c r="K82" s="19"/>
       <c r="L82" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M82" s="17"/>
       <c r="N82" s="19"/>
       <c r="O82" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P82" s="17"/>
       <c r="Q82" s="17"/>
@@ -45229,24 +45323,24 @@
       </c>
       <c r="C83" s="15"/>
       <c r="D83" s="16" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>
@@ -45281,24 +45375,24 @@
       </c>
       <c r="C84" s="15"/>
       <c r="D84" s="16" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="E84" s="17"/>
       <c r="F84" s="17"/>
       <c r="G84" s="15"/>
       <c r="H84" s="16" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="I84" s="18"/>
       <c r="J84" s="17"/>
       <c r="K84" s="19"/>
       <c r="L84" s="16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="M84" s="17"/>
       <c r="N84" s="19"/>
       <c r="O84" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P84" s="17"/>
       <c r="Q84" s="17"/>
@@ -46450,7 +46544,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F79806-5528-402D-A1EA-E6249CCE207F}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A47" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="M91" sqref="M91"/>
     </sheetView>
   </sheetViews>
@@ -48051,7 +48145,7 @@
       <c r="B44" s="6"/>
       <c r="C44" s="22"/>
       <c r="D44" s="22" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E44" s="22"/>
       <c r="F44" s="22"/>
@@ -48179,7 +48273,7 @@
       <c r="B47" s="6"/>
       <c r="C47" s="22"/>
       <c r="D47" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="E47" s="22"/>
       <c r="F47" s="22"/>
@@ -48222,7 +48316,7 @@
       <c r="A48" s="6"/>
       <c r="B48" s="6"/>
       <c r="D48" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E48" s="22"/>
       <c r="F48" s="22"/>
@@ -48265,7 +48359,7 @@
       <c r="A49" s="6"/>
       <c r="B49" s="6"/>
       <c r="D49" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E49" s="22"/>
       <c r="F49" s="22"/>
@@ -48348,7 +48442,7 @@
       <c r="A51" s="6"/>
       <c r="B51" s="6"/>
       <c r="D51" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E51" s="22"/>
       <c r="F51" s="22"/>
@@ -48391,13 +48485,13 @@
       <c r="A52" s="6"/>
       <c r="B52" s="6"/>
       <c r="D52" s="22" t="s">
+        <v>102</v>
+      </c>
+      <c r="E52" s="25" t="s">
         <v>103</v>
       </c>
-      <c r="E52" s="25" t="s">
+      <c r="F52" s="22" t="s">
         <v>104</v>
-      </c>
-      <c r="F52" s="22" t="s">
-        <v>105</v>
       </c>
       <c r="G52" s="22"/>
       <c r="H52" s="22"/>
@@ -48438,7 +48532,7 @@
       <c r="A53" s="6"/>
       <c r="B53" s="6"/>
       <c r="E53" s="22" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F53" s="22"/>
       <c r="G53" s="22"/>
@@ -48480,7 +48574,7 @@
       <c r="A54" s="6"/>
       <c r="B54" s="6"/>
       <c r="D54" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="E54" s="22"/>
       <c r="F54" s="22"/>
@@ -48523,7 +48617,7 @@
       <c r="A55" s="6"/>
       <c r="B55" s="6"/>
       <c r="D55" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="E55" s="22"/>
       <c r="F55" s="22"/>
@@ -48566,7 +48660,7 @@
       <c r="A56" s="6"/>
       <c r="B56" s="6"/>
       <c r="D56" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="E56" s="22"/>
       <c r="F56" s="22"/>
@@ -48609,7 +48703,7 @@
       <c r="A57" s="6"/>
       <c r="B57" s="6"/>
       <c r="D57" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="E57" s="22"/>
       <c r="F57" s="22"/>
@@ -48692,7 +48786,7 @@
       <c r="A59" s="6"/>
       <c r="B59" s="6"/>
       <c r="D59" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="E59" s="22"/>
       <c r="F59" s="22"/>
@@ -48735,7 +48829,7 @@
       <c r="A60" s="6"/>
       <c r="B60" s="6"/>
       <c r="D60" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E60" s="22"/>
       <c r="F60" s="22"/>
@@ -49577,24 +49671,24 @@
         <v>1</v>
       </c>
       <c r="D80" s="16" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E80" s="17"/>
       <c r="F80" s="17"/>
       <c r="G80" s="15"/>
       <c r="H80" s="16" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="I80" s="18"/>
       <c r="J80" s="17"/>
       <c r="K80" s="19"/>
       <c r="L80" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M80" s="17"/>
       <c r="N80" s="19"/>
       <c r="O80" s="16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="P80" s="17"/>
       <c r="Q80" s="17"/>
@@ -49629,24 +49723,24 @@
         <v>2</v>
       </c>
       <c r="D81" s="16" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E81" s="17"/>
       <c r="F81" s="17"/>
       <c r="G81" s="15"/>
       <c r="H81" s="16" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="I81" s="18"/>
       <c r="J81" s="17"/>
       <c r="K81" s="19"/>
       <c r="L81" s="16" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="M81" s="17"/>
       <c r="N81" s="19"/>
       <c r="O81" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P81" s="17"/>
       <c r="Q81" s="17"/>
@@ -49681,13 +49775,13 @@
         <v>3</v>
       </c>
       <c r="D82" s="16" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E82" s="17"/>
       <c r="F82" s="17"/>
       <c r="G82" s="15"/>
       <c r="H82" s="16" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="I82" s="18"/>
       <c r="J82" s="17"/>
@@ -49729,24 +49823,24 @@
         <v>4</v>
       </c>
       <c r="D83" s="16" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
       <c r="H83" s="16" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
       <c r="L83" s="16" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="M83" s="17"/>
       <c r="N83" s="19"/>
       <c r="O83" s="16" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="P83" s="17"/>
       <c r="Q83" s="17"/>

--- a/documents/外部設計/外部設計書_D2.xlsx
+++ b/documents/外部設計/外部設計書_D2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5DEC153F-C46F-4A85-B563-FCE207D1B794}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EFDE48-171E-413E-89B3-A7157F0F147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5955" yWindow="645" windowWidth="12180" windowHeight="9450" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="532" uniqueCount="241">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="245">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -2049,6 +2049,34 @@
     <t>q-file</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>「５．インフォメーション」</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>クリックすると検索機能の解説が見れる</t>
+    <rPh sb="7" eb="9">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>キノウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カイセツ</t>
+    </rPh>
+    <rPh sb="15" eb="16">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>information</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>インフォメーション</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -3421,14 +3449,14 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>73637</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>164087</xdr:rowOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>2162</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>36</xdr:col>
       <xdr:colOff>155280</xdr:colOff>
       <xdr:row>37</xdr:row>
-      <xdr:rowOff>150480</xdr:rowOff>
+      <xdr:rowOff>179055</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3443,8 +3471,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="914078" y="2069087"/>
-          <a:ext cx="9718702" cy="5129893"/>
+          <a:off x="902312" y="2097662"/>
+          <a:ext cx="9597118" cy="5129893"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3707,26 +3735,17 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="lt1"/>
-        </a:solidFill>
-        <a:ln w="9525" cmpd="sng">
-          <a:solidFill>
-            <a:schemeClr val="lt1">
-              <a:shade val="50000"/>
-            </a:schemeClr>
-          </a:solidFill>
-        </a:ln>
+        <a:ln/>
       </xdr:spPr>
       <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
         </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
         </a:fillRef>
         <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
+          <a:schemeClr val="accent1"/>
         </a:effectRef>
         <a:fontRef idx="minor">
           <a:schemeClr val="dk1"/>
@@ -3746,8 +3765,13 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
+            <a:t>) </a:t>
           </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>◎</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -4423,10 +4447,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>148236</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>49786</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>262536</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>183136</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="473529" cy="359073"/>
     <xdr:sp macro="" textlink="">
@@ -4442,7 +4466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8552648" y="2335786"/>
+          <a:off x="10054236" y="2278636"/>
           <a:ext cx="473529" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4478,6 +4502,75 @@
             </a:rPr>
             <a:t>４</a:t>
           </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>126385</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>14487</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="473529" cy="593239"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="20" name="テキスト ボックス 19">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2FD0C3C2-5FC9-4FA1-ABA6-D6D3FCF970B1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8260735" y="2490987"/>
+          <a:ext cx="473529" cy="593239"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>5</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -14917,7 +15010,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
@@ -19437,8 +19530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5949A1-8B95-4D70-B4DD-69A3B154C943}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L79" sqref="L79"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -21999,7 +22092,9 @@
       <c r="A65" s="6"/>
       <c r="B65" s="6"/>
       <c r="C65" s="10"/>
-      <c r="D65" s="10"/>
+      <c r="D65" s="10" t="s">
+        <v>241</v>
+      </c>
       <c r="E65" s="9"/>
       <c r="F65" s="9"/>
       <c r="G65" s="9"/>
@@ -22041,7 +22136,9 @@
       <c r="A66" s="6"/>
       <c r="B66" s="6"/>
       <c r="C66" s="10"/>
-      <c r="D66" s="10"/>
+      <c r="D66" s="10" t="s">
+        <v>242</v>
+      </c>
       <c r="E66" s="9"/>
       <c r="F66" s="9"/>
       <c r="G66" s="9"/>
@@ -22812,12 +22909,18 @@
     <row r="83" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A83" s="6"/>
       <c r="B83" s="14"/>
-      <c r="C83" s="15"/>
-      <c r="D83" s="16"/>
+      <c r="C83" s="15">
+        <v>5</v>
+      </c>
+      <c r="D83" s="16" t="s">
+        <v>243</v>
+      </c>
       <c r="E83" s="17"/>
       <c r="F83" s="17"/>
       <c r="G83" s="15"/>
-      <c r="H83" s="16"/>
+      <c r="H83" s="16" t="s">
+        <v>244</v>
+      </c>
       <c r="I83" s="18"/>
       <c r="J83" s="17"/>
       <c r="K83" s="19"/>
@@ -41679,6 +41782,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -41689,11 +41797,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>

--- a/documents/外部設計/外部設計書_D2.xlsx
+++ b/documents/外部設計/外部設計書_D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78EFDE48-171E-413E-89B3-A7157F0F147F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2595ED-2531-40FD-919E-3F18DB9492F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -4759,20 +4759,17 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>山田　太郎さん</a:t>
+            <a:t>質問タイトル</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
-            <a:t>2021/06/04</a:t>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
+            <a:t>山田　太郎さん</a:t>
           </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
-            <a:t> 17:50</a:t>
-          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
@@ -4808,22 +4805,54 @@
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
-            <a:solidFill>
-              <a:schemeClr val="dk1"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:latin typeface="+mn-lt"/>
-            <a:ea typeface="+mn-ea"/>
-            <a:cs typeface="+mn-cs"/>
-          </a:endParaRPr>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
         </a:p>
         <a:p>
           <a:pPr algn="l"/>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
         </a:p>
         <a:p>
-          <a:pPr algn="l"/>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" algn="l" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>2021/06/04</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 17:50</a:t>
+          </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
         </a:p>
         <a:p>
@@ -7396,10 +7425,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>70758</xdr:colOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>272464</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>127187</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="415017" cy="319651"/>
     <xdr:sp macro="" textlink="">
@@ -7415,7 +7444,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4061733" y="2009775"/>
+          <a:off x="4026435" y="2032187"/>
           <a:ext cx="415017" cy="319651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15010,7 +15039,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="N87" sqref="N87"/>
     </sheetView>
   </sheetViews>
@@ -19530,7 +19559,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5949A1-8B95-4D70-B4DD-69A3B154C943}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -24078,8 +24107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6004294-4002-4A39-8BA4-A6BAA901B5F2}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28753,7 +28782,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543040C3-1FBD-44BA-919F-2D6A0B445CBD}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="J90" sqref="J90"/>
     </sheetView>
   </sheetViews>
@@ -33106,7 +33135,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97949B7C-61CA-4DAF-966C-BC13BB1A9DFF}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
@@ -37459,7 +37488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B57A2D6-8E27-4368-AED8-E7F89AB612AC}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A74" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
@@ -41782,11 +41811,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -41797,6 +41821,11 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -41812,8 +41841,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F20ABC-47D1-4F8E-B8C8-736277399044}">
   <dimension ref="A1:CA110"/>
   <sheetViews>
-    <sheetView topLeftCell="A37" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView topLeftCell="A16" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection activeCell="AN35" sqref="AN35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -47268,8 +47297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F79806-5528-402D-A1EA-E6249CCE207F}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>

--- a/documents/外部設計/外部設計書_D2.xlsx
+++ b/documents/外部設計/外部設計書_D2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C2595ED-2531-40FD-919E-3F18DB9492F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9854A8-96EA-478E-9382-7657D4622A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ログインページ" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="258">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -2077,6 +2077,109 @@
     <t>インフォメーション</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t>質問内容表示ページ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="6">
+      <t>ナイヨウヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>田島</t>
+    <rPh sb="0" eb="2">
+      <t>タジマ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索ページ</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>質問登録ぺージ</t>
+    <rPh sb="0" eb="2">
+      <t>シツモン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>質問更新ページ</t>
+    <rPh sb="0" eb="4">
+      <t>シツモンコウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>田島</t>
+    <rPh sb="0" eb="2">
+      <t>タジマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>「６．ページネーション機能」</t>
+    <rPh sb="11" eb="13">
+      <t>キノウ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>検索結果を1ページに５件まで表示する</t>
+    <rPh sb="0" eb="2">
+      <t>ケンサク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ケッカ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ケン</t>
+    </rPh>
+    <rPh sb="14" eb="16">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>乘川</t>
+    <rPh sb="0" eb="2">
+      <t>ノリカワ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>履歴画面</t>
+    <rPh sb="0" eb="4">
+      <t>リレキガメン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>乘川</t>
+    <rPh sb="0" eb="2">
+      <t>ノリカワ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>回答更新ページ</t>
+    <rPh sb="0" eb="4">
+      <t>カイトウコウシン</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>ヘッダー</t>
+    <phoneticPr fontId="4"/>
+  </si>
 </sst>
 </file>
 
@@ -2469,7 +2572,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2635,6 +2738,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3567,15 +3682,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>68035</xdr:colOff>
+      <xdr:colOff>10885</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:rowOff>185057</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>272142</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:colOff>214992</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3590,8 +3705,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1156606" y="2490107"/>
-          <a:ext cx="4558393" cy="394607"/>
+          <a:off x="1515835" y="2661557"/>
+          <a:ext cx="4623707" cy="394607"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -3622,12 +3737,15 @@
         <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
         <a:lstStyle/>
         <a:p>
-          <a:pPr algn="l"/>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
-            <a:solidFill>
-              <a:schemeClr val="accent3"/>
-            </a:solidFill>
-          </a:endParaRPr>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>キーワード</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -3636,15 +3754,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>108857</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>176893</xdr:rowOff>
+      <xdr:colOff>13607</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>157843</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>23</xdr:col>
-      <xdr:colOff>258535</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>27214</xdr:rowOff>
+      <xdr:colOff>163285</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>8164</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -3659,8 +3777,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5823857" y="2462893"/>
-          <a:ext cx="693964" cy="421821"/>
+          <a:off x="6214382" y="2634343"/>
+          <a:ext cx="702128" cy="421821"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4003,22 +4121,28 @@
         <a:p>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
       </xdr:txBody>
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>168730</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>138795</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>92530</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>24495</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>40820</xdr:colOff>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>240845</xdr:colOff>
       <xdr:row>17</xdr:row>
-      <xdr:rowOff>68036</xdr:rowOff>
+      <xdr:rowOff>144236</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4033,8 +4157,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5339444" y="2996295"/>
-          <a:ext cx="1232805" cy="310241"/>
+          <a:off x="5188405" y="3072495"/>
+          <a:ext cx="1253215" cy="310241"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4086,7 +4210,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>　▽</a:t>
+            <a:t>　</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -4323,10 +4447,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>235642</xdr:colOff>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>73717</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>69957</xdr:rowOff>
+      <xdr:rowOff>174732</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="473529" cy="359073"/>
     <xdr:sp macro="" textlink="">
@@ -4342,7 +4466,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5278289" y="2927457"/>
+          <a:off x="4893367" y="3032232"/>
           <a:ext cx="473529" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -4576,6 +4700,643 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>9524</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>76199</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>131989</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="21" name="テキスト ボックス 20">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D99DC8DB-40DE-4A5C-9052-B5820A4B1334}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6486524" y="3114675"/>
+          <a:ext cx="619125" cy="255814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>並び替え</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>254612</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>101494</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6F303165-2E6D-417B-B57B-A15A0CC35278}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2588237" y="2247900"/>
+          <a:ext cx="2498113" cy="330094"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:solidFill>
+            <a:schemeClr val="accent3">
+              <a:lumMod val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent6"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent6"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400">
+              <a:solidFill>
+                <a:schemeClr val="tx1"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>カテゴリ</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="31" name="テキスト ボックス 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5C56F40-E3E9-4E41-9EB3-32A902316939}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3857625" y="6436179"/>
+          <a:ext cx="295275" cy="288853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>1</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>213632</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="32" name="テキスト ボックス 31">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A6F2D756-2B42-4ED3-BCF0-4D9916126ECC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4204607" y="6436179"/>
+          <a:ext cx="291193" cy="288853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>2</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>213633</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="テキスト ボックス 32">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{32FF97F2-7271-46CC-B448-61AE7F69131B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4533900" y="6436179"/>
+          <a:ext cx="499383" cy="288853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>次へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>156482</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>103415</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="35" name="テキスト ボックス 34">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B9132C44-23C3-48E7-B9E2-4A54596C3B43}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3318782" y="6436179"/>
+          <a:ext cx="499383" cy="288853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>前へ</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>166007</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>112940</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="36" name="テキスト ボックス 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D3BC1CAA-C15A-44F3-9739-083C622AF689}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2775857" y="6436179"/>
+          <a:ext cx="499383" cy="288853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>first</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>242207</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>149679</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>189140</xdr:colOff>
+      <xdr:row>35</xdr:row>
+      <xdr:rowOff>57532</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="37" name="テキスト ボックス 36">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E010067-18B1-4F75-A0E5-876168555D68}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5061857" y="6436179"/>
+          <a:ext cx="499383" cy="288853"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>last</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>23133</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>35379</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="338818" cy="342786"/>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="38" name="テキスト ボックス 37">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E8B2E52-3B2C-48AD-9BB6-691A70BC51B6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5395233" y="6131379"/>
+          <a:ext cx="338818" cy="342786"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:spAutoFit/>
+        </a:bodyPr>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600" b="1">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>6</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
+            <a:solidFill>
+              <a:srgbClr val="FF0000"/>
+            </a:solidFill>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:oneCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -4708,10 +5469,10 @@
       <xdr:rowOff>136070</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>-1</xdr:colOff>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>280146</xdr:colOff>
       <xdr:row>22</xdr:row>
-      <xdr:rowOff>40821</xdr:rowOff>
+      <xdr:rowOff>78441</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -4726,8 +5487,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="1347108" y="2041070"/>
-          <a:ext cx="4231820" cy="2190751"/>
+          <a:off x="1371120" y="2041070"/>
+          <a:ext cx="4343879" cy="2228371"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -4766,8 +5527,40 @@
         <a:p>
           <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200"/>
-            <a:t>山田　太郎さん</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>java(</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>カテゴリ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200"/>
         </a:p>
@@ -4830,6 +5623,26 @@
             <a:defRPr/>
           </a:pPr>
           <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>山田　太郎さん</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+            <a:t>・</a:t>
+          </a:r>
+          <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
                 <a:schemeClr val="dk1"/>
@@ -4853,24 +5666,16 @@
             </a:rPr>
             <a:t> 17:50</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
-            <a:t>java(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
-            <a:t>カテゴリ</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1200" baseline="0"/>
-            <a:t>) </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1200" baseline="0"/>
+            <a:rPr kumimoji="0" lang="ja-JP" altLang="en-US" sz="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
             <a:t>・</a:t>
           </a:r>
           <a:r>
@@ -6340,16 +7145,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>51709</xdr:colOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>589592</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>117020</xdr:rowOff>
+      <xdr:rowOff>60990</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>161926</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>21770</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>27456</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>156240</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -6364,8 +7169,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4595134" y="3546020"/>
-          <a:ext cx="938892" cy="285750"/>
+          <a:off x="1430033" y="3489990"/>
+          <a:ext cx="950658" cy="285750"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6550,10 +7355,10 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>223158</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>104774</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>66276</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>37539</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="300717" cy="316931"/>
     <xdr:sp macro="" textlink="">
@@ -6569,7 +7374,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5319033" y="3343274"/>
+          <a:off x="2139364" y="3466539"/>
           <a:ext cx="300717" cy="316931"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -7345,16 +8150,16 @@
   </xdr:oneCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>51708</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>12245</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>578385</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>18</xdr:col>
-      <xdr:colOff>206603</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>127556</xdr:rowOff>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>11207</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>49113</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -7369,8 +8174,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4318908" y="2107745"/>
-          <a:ext cx="1259795" cy="305811"/>
+          <a:off x="1418826" y="3978088"/>
+          <a:ext cx="945616" cy="262025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -7415,7 +8220,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
-            <a:t>未完了　▽</a:t>
+            <a:t>未完了</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
@@ -11449,16 +12254,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>78550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>161340</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>37137</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>37101</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>230787</xdr:colOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>189374</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>90581</xdr:rowOff>
+      <xdr:rowOff>159603</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -11473,8 +12278,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9149451" y="2609043"/>
-          <a:ext cx="1259795" cy="305811"/>
+          <a:off x="1624637" y="2742753"/>
+          <a:ext cx="1256585" cy="315763"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11825,10 +12630,10 @@
   </xdr:oneCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>29</xdr:col>
-      <xdr:colOff>253839</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>177933</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>60578</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>12281</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="473529" cy="359073"/>
     <xdr:sp macro="" textlink="">
@@ -11844,7 +12649,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8556764" y="2550197"/>
+          <a:off x="2752426" y="2524672"/>
           <a:ext cx="473529" cy="359073"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -12344,13 +13149,13 @@
       <xdr:col>44</xdr:col>
       <xdr:colOff>163284</xdr:colOff>
       <xdr:row>12</xdr:row>
-      <xdr:rowOff>42286</xdr:rowOff>
+      <xdr:rowOff>83699</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>77</xdr:col>
       <xdr:colOff>244927</xdr:colOff>
-      <xdr:row>36</xdr:row>
-      <xdr:rowOff>195151</xdr:rowOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>43303</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12365,8 +13170,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="12509841" y="2414550"/>
-          <a:ext cx="8977633" cy="4897393"/>
+          <a:off x="12794262" y="2402829"/>
+          <a:ext cx="9192513" cy="4791126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -12593,16 +13398,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>72</xdr:col>
-      <xdr:colOff>78550</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>161340</xdr:rowOff>
+      <xdr:col>45</xdr:col>
+      <xdr:colOff>37137</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>50905</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>76</xdr:col>
-      <xdr:colOff>230787</xdr:colOff>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>189374</xdr:colOff>
       <xdr:row>16</xdr:row>
-      <xdr:rowOff>90581</xdr:rowOff>
+      <xdr:rowOff>173407</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -12617,8 +13422,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="8920625" y="2731293"/>
-          <a:ext cx="1230539" cy="324618"/>
+          <a:off x="12944202" y="2949818"/>
+          <a:ext cx="1256585" cy="315763"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14200,6 +15005,146 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:oneCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>40</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>70376</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>66991</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>132929</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="66" name="テキスト ボックス 65">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9E9A746F-B919-44A4-87AA-45E0E304C64C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2967975" y="2776028"/>
+          <a:ext cx="619125" cy="255814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>並び替え</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>49</xdr:col>
+      <xdr:colOff>273719</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>69894</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>52</xdr:col>
+      <xdr:colOff>64583</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>132447</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="67" name="テキスト ボックス 66">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A1A23B7A-602C-469B-BE9E-EB0E11E03811}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="14285132" y="2968807"/>
+          <a:ext cx="619125" cy="255814"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="800"/>
+            <a:t>並び替え</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -14522,129 +15467,6 @@
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000"/>
             <a:t>アプリ名</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>223664</xdr:colOff>
-      <xdr:row>26</xdr:row>
-      <xdr:rowOff>169262</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="473529" cy="359073"/>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="テキスト ボックス 6">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F09E4947-3B7C-412D-AF1F-BC9340C28011}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1"/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="11082164" y="5122262"/>
-          <a:ext cx="473529" cy="359073"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:scrgbClr r="0" g="0" b="0"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
-          <a:spAutoFit/>
-        </a:bodyPr>
-        <a:lstStyle/>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600" b="1">
-              <a:solidFill>
-                <a:srgbClr val="FF0000"/>
-              </a:solidFill>
-            </a:rPr>
-            <a:t>３</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:oneCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>36</xdr:col>
-      <xdr:colOff>76638</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>175173</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>38</xdr:col>
-      <xdr:colOff>175172</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>76638</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="楕円 7">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FB14F9C-27F7-4E43-9124-D7CDEF20515B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm rot="5400000">
-          <a:off x="11205122" y="5515414"/>
-          <a:ext cx="663465" cy="650984"/>
-        </a:xfrm>
-        <a:prstGeom prst="ellipse">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1"/>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="lt1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="dk1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="2000" b="1"/>
-            <a:t>＜</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -15039,8 +15861,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N87" sqref="N87"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15066,7 +15888,9 @@
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
+      <c r="N1" s="37" t="s">
+        <v>22</v>
+      </c>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
       <c r="Q1" s="37"/>
@@ -15079,7 +15903,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
+      <c r="Y1" s="37" t="s">
+        <v>250</v>
+      </c>
       <c r="Z1" s="37"/>
       <c r="AA1" s="37"/>
       <c r="AB1" s="37"/>
@@ -15090,7 +15916,9 @@
         <v>4</v>
       </c>
       <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
+      <c r="AH1" s="44" t="s">
+        <v>255</v>
+      </c>
       <c r="AI1" s="44"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="44"/>
@@ -15127,7 +15955,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="Y2" s="59">
+        <v>44350</v>
+      </c>
       <c r="Z2" s="47"/>
       <c r="AA2" s="47"/>
       <c r="AB2" s="47"/>
@@ -15138,7 +15968,9 @@
         <v>3</v>
       </c>
       <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
+      <c r="AH2" s="62">
+        <v>44375</v>
+      </c>
       <c r="AI2" s="49"/>
       <c r="AJ2" s="49"/>
       <c r="AK2" s="49"/>
@@ -19559,7 +20391,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA5949A1-8B95-4D70-B4DD-69A3B154C943}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="I13" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -19588,7 +20420,9 @@
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
+      <c r="N1" s="37" t="s">
+        <v>247</v>
+      </c>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
       <c r="Q1" s="37"/>
@@ -19601,7 +20435,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
+      <c r="Y1" s="37" t="s">
+        <v>246</v>
+      </c>
       <c r="Z1" s="37"/>
       <c r="AA1" s="37"/>
       <c r="AB1" s="37"/>
@@ -19612,7 +20448,9 @@
         <v>4</v>
       </c>
       <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
+      <c r="AH1" s="44" t="s">
+        <v>253</v>
+      </c>
       <c r="AI1" s="44"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="44"/>
@@ -19649,7 +20487,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="Y2" s="59">
+        <v>44350</v>
+      </c>
       <c r="Z2" s="47"/>
       <c r="AA2" s="47"/>
       <c r="AB2" s="47"/>
@@ -19660,7 +20500,9 @@
         <v>3</v>
       </c>
       <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
+      <c r="AH2" s="62">
+        <v>44375</v>
+      </c>
       <c r="AI2" s="49"/>
       <c r="AJ2" s="49"/>
       <c r="AK2" s="49"/>
@@ -22251,7 +23093,9 @@
       <c r="A68" s="6"/>
       <c r="B68" s="6"/>
       <c r="C68" s="10"/>
-      <c r="D68" s="10"/>
+      <c r="D68" s="10" t="s">
+        <v>251</v>
+      </c>
       <c r="E68" s="9"/>
       <c r="F68" s="9"/>
       <c r="G68" s="9"/>
@@ -22293,7 +23137,9 @@
       <c r="A69" s="6"/>
       <c r="B69" s="6"/>
       <c r="C69" s="10"/>
-      <c r="D69" s="10"/>
+      <c r="D69" s="10" t="s">
+        <v>252</v>
+      </c>
       <c r="E69" s="9"/>
       <c r="F69" s="9"/>
       <c r="G69" s="9"/>
@@ -24107,7 +24953,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6004294-4002-4A39-8BA4-A6BAA901B5F2}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
@@ -24136,7 +24982,9 @@
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="37"/>
+      <c r="N1" s="37" t="s">
+        <v>245</v>
+      </c>
       <c r="O1" s="37"/>
       <c r="P1" s="37"/>
       <c r="Q1" s="37"/>
@@ -24149,7 +24997,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="37"/>
-      <c r="Y1" s="37"/>
+      <c r="Y1" s="37" t="s">
+        <v>246</v>
+      </c>
       <c r="Z1" s="37"/>
       <c r="AA1" s="37"/>
       <c r="AB1" s="37"/>
@@ -24160,7 +25010,9 @@
         <v>4</v>
       </c>
       <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
+      <c r="AH1" s="44" t="s">
+        <v>253</v>
+      </c>
       <c r="AI1" s="44"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="44"/>
@@ -24197,7 +25049,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="47"/>
-      <c r="Y2" s="47"/>
+      <c r="Y2" s="59">
+        <v>44350</v>
+      </c>
       <c r="Z2" s="47"/>
       <c r="AA2" s="47"/>
       <c r="AB2" s="47"/>
@@ -24208,7 +25062,9 @@
         <v>3</v>
       </c>
       <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
+      <c r="AH2" s="62">
+        <v>44375</v>
+      </c>
       <c r="AI2" s="49"/>
       <c r="AJ2" s="49"/>
       <c r="AK2" s="49"/>
@@ -28782,8 +29638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{543040C3-1FBD-44BA-919F-2D6A0B445CBD}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="J90" sqref="J90"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -28811,7 +29667,9 @@
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="N1" s="36" t="s">
+        <v>248</v>
+      </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
@@ -28824,7 +29682,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="Y1" s="36" t="s">
+        <v>246</v>
+      </c>
       <c r="Z1" s="36"/>
       <c r="AA1" s="36"/>
       <c r="AB1" s="36"/>
@@ -28835,7 +29695,9 @@
         <v>4</v>
       </c>
       <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
+      <c r="AH1" s="44" t="s">
+        <v>253</v>
+      </c>
       <c r="AI1" s="44"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="44"/>
@@ -28872,7 +29734,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="Y2" s="60">
+        <v>44350</v>
+      </c>
       <c r="Z2" s="46"/>
       <c r="AA2" s="46"/>
       <c r="AB2" s="46"/>
@@ -28883,7 +29747,9 @@
         <v>3</v>
       </c>
       <c r="AG2" s="56"/>
-      <c r="AH2" s="57"/>
+      <c r="AH2" s="62">
+        <v>44375</v>
+      </c>
       <c r="AI2" s="57"/>
       <c r="AJ2" s="57"/>
       <c r="AK2" s="57"/>
@@ -33135,8 +34001,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{97949B7C-61CA-4DAF-966C-BC13BB1A9DFF}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -33164,7 +34030,9 @@
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="N1" s="36" t="s">
+        <v>249</v>
+      </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
@@ -33177,7 +34045,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="Y1" s="36" t="s">
+        <v>246</v>
+      </c>
       <c r="Z1" s="36"/>
       <c r="AA1" s="36"/>
       <c r="AB1" s="36"/>
@@ -33188,7 +34058,9 @@
         <v>4</v>
       </c>
       <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
+      <c r="AH1" s="44" t="s">
+        <v>253</v>
+      </c>
       <c r="AI1" s="44"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="44"/>
@@ -33225,7 +34097,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="Y2" s="60">
+        <v>44350</v>
+      </c>
       <c r="Z2" s="46"/>
       <c r="AA2" s="46"/>
       <c r="AB2" s="46"/>
@@ -33236,7 +34110,9 @@
         <v>3</v>
       </c>
       <c r="AG2" s="56"/>
-      <c r="AH2" s="57"/>
+      <c r="AH2" s="62">
+        <v>44375</v>
+      </c>
       <c r="AI2" s="57"/>
       <c r="AJ2" s="57"/>
       <c r="AK2" s="57"/>
@@ -37488,8 +38364,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2B57A2D6-8E27-4368-AED8-E7F89AB612AC}">
   <dimension ref="A1:AN109"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D82" sqref="D82"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -37517,7 +38393,9 @@
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="N1" s="36" t="s">
+        <v>256</v>
+      </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
@@ -37530,7 +38408,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="Y1" s="61" t="s">
+        <v>246</v>
+      </c>
       <c r="Z1" s="36"/>
       <c r="AA1" s="36"/>
       <c r="AB1" s="36"/>
@@ -37541,7 +38421,9 @@
         <v>4</v>
       </c>
       <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
+      <c r="AH1" s="44" t="s">
+        <v>253</v>
+      </c>
       <c r="AI1" s="44"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="44"/>
@@ -37578,7 +38460,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="Y2" s="60">
+        <v>44350</v>
+      </c>
       <c r="Z2" s="46"/>
       <c r="AA2" s="46"/>
       <c r="AB2" s="46"/>
@@ -37589,7 +38473,9 @@
         <v>3</v>
       </c>
       <c r="AG2" s="56"/>
-      <c r="AH2" s="57"/>
+      <c r="AH2" s="62">
+        <v>44375</v>
+      </c>
       <c r="AI2" s="57"/>
       <c r="AJ2" s="57"/>
       <c r="AK2" s="57"/>
@@ -41811,6 +42697,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -41821,11 +42712,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -41841,8 +42727,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{99F20ABC-47D1-4F8E-B8C8-736277399044}">
   <dimension ref="A1:CA110"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
-      <selection activeCell="AN35" sqref="AN35"/>
+    <sheetView zoomScale="69" zoomScaleNormal="69" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -41871,7 +42757,9 @@
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="N1" s="36" t="s">
+        <v>254</v>
+      </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
@@ -41884,7 +42772,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="Y1" s="36" t="s">
+        <v>246</v>
+      </c>
       <c r="Z1" s="36"/>
       <c r="AA1" s="36"/>
       <c r="AB1" s="36"/>
@@ -41895,7 +42785,9 @@
         <v>4</v>
       </c>
       <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
+      <c r="AH1" s="44" t="s">
+        <v>253</v>
+      </c>
       <c r="AI1" s="44"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="44"/>
@@ -41932,7 +42824,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="Y2" s="60">
+        <v>44350</v>
+      </c>
       <c r="Z2" s="46"/>
       <c r="AA2" s="46"/>
       <c r="AB2" s="46"/>
@@ -41943,7 +42837,9 @@
         <v>3</v>
       </c>
       <c r="AG2" s="56"/>
-      <c r="AH2" s="57"/>
+      <c r="AH2" s="62">
+        <v>44375</v>
+      </c>
       <c r="AI2" s="57"/>
       <c r="AJ2" s="57"/>
       <c r="AK2" s="57"/>
@@ -47297,8 +48193,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E0F79806-5528-402D-A1EA-E6249CCE207F}">
   <dimension ref="A1:AN110"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -47328,7 +48224,9 @@
       </c>
       <c r="L1" s="36"/>
       <c r="M1" s="36"/>
-      <c r="N1" s="36"/>
+      <c r="N1" s="36" t="s">
+        <v>257</v>
+      </c>
       <c r="O1" s="36"/>
       <c r="P1" s="36"/>
       <c r="Q1" s="36"/>
@@ -47341,7 +48239,9 @@
         <v>7</v>
       </c>
       <c r="X1" s="36"/>
-      <c r="Y1" s="36"/>
+      <c r="Y1" s="36" t="s">
+        <v>246</v>
+      </c>
       <c r="Z1" s="36"/>
       <c r="AA1" s="36"/>
       <c r="AB1" s="36"/>
@@ -47352,7 +48252,9 @@
         <v>4</v>
       </c>
       <c r="AG1" s="51"/>
-      <c r="AH1" s="44"/>
+      <c r="AH1" s="44" t="s">
+        <v>253</v>
+      </c>
       <c r="AI1" s="44"/>
       <c r="AJ1" s="44"/>
       <c r="AK1" s="44"/>
@@ -47389,7 +48291,9 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="46"/>
+      <c r="Y2" s="60">
+        <v>44350</v>
+      </c>
       <c r="Z2" s="46"/>
       <c r="AA2" s="46"/>
       <c r="AB2" s="46"/>
@@ -47400,7 +48304,9 @@
         <v>3</v>
       </c>
       <c r="AG2" s="56"/>
-      <c r="AH2" s="57"/>
+      <c r="AH2" s="62">
+        <v>44375</v>
+      </c>
       <c r="AI2" s="57"/>
       <c r="AJ2" s="57"/>
       <c r="AK2" s="57"/>

--- a/documents/外部設計/外部設計書_D2.xlsx
+++ b/documents/外部設計/外部設計書_D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F9854A8-96EA-478E-9382-7657D4622A6E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8A173F-9682-4590-A48C-F3B77B9A80BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="258">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="563" uniqueCount="259">
   <si>
     <t>画面名</t>
     <rPh sb="0" eb="2">
@@ -2180,6 +2180,10 @@
     <t>ヘッダー</t>
     <phoneticPr fontId="4"/>
   </si>
+  <si>
+    <t xml:space="preserve"> </t>
+    <phoneticPr fontId="3"/>
+  </si>
 </sst>
 </file>
 
@@ -2707,8 +2711,14 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2731,6 +2741,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2740,17 +2753,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="56" fontId="5" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="56" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -15862,7 +15866,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection sqref="A1:J3"/>
+      <selection activeCell="N5" sqref="N5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -15912,10 +15916,10 @@
       <c r="AC1" s="37"/>
       <c r="AD1" s="37"/>
       <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
+      <c r="AG1" s="53"/>
       <c r="AH1" s="44" t="s">
         <v>255</v>
       </c>
@@ -15955,7 +15959,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="47"/>
-      <c r="Y2" s="59">
+      <c r="Y2" s="48">
         <v>44350</v>
       </c>
       <c r="Z2" s="47"/>
@@ -15964,19 +15968,19 @@
       <c r="AC2" s="47"/>
       <c r="AD2" s="47"/>
       <c r="AE2" s="47"/>
-      <c r="AF2" s="48" t="s">
+      <c r="AF2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="62">
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="50">
         <v>44375</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
@@ -16039,7 +16043,9 @@
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
       <c r="M5" s="4"/>
-      <c r="N5" s="4"/>
+      <c r="N5" s="4" t="s">
+        <v>258</v>
+      </c>
       <c r="O5" s="4"/>
       <c r="P5" s="4"/>
       <c r="Q5" s="4"/>
@@ -20444,10 +20450,10 @@
       <c r="AC1" s="37"/>
       <c r="AD1" s="37"/>
       <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
+      <c r="AG1" s="53"/>
       <c r="AH1" s="44" t="s">
         <v>253</v>
       </c>
@@ -20487,7 +20493,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="47"/>
-      <c r="Y2" s="59">
+      <c r="Y2" s="48">
         <v>44350</v>
       </c>
       <c r="Z2" s="47"/>
@@ -20496,19 +20502,19 @@
       <c r="AC2" s="47"/>
       <c r="AD2" s="47"/>
       <c r="AE2" s="47"/>
-      <c r="AF2" s="48" t="s">
+      <c r="AF2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="62">
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="50">
         <v>44375</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
@@ -25006,10 +25012,10 @@
       <c r="AC1" s="37"/>
       <c r="AD1" s="37"/>
       <c r="AE1" s="37"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
+      <c r="AG1" s="53"/>
       <c r="AH1" s="44" t="s">
         <v>253</v>
       </c>
@@ -25049,7 +25055,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="47"/>
-      <c r="Y2" s="59">
+      <c r="Y2" s="48">
         <v>44350</v>
       </c>
       <c r="Z2" s="47"/>
@@ -25058,19 +25064,19 @@
       <c r="AC2" s="47"/>
       <c r="AD2" s="47"/>
       <c r="AE2" s="47"/>
-      <c r="AF2" s="48" t="s">
+      <c r="AF2" s="49" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="62">
+      <c r="AG2" s="49"/>
+      <c r="AH2" s="50">
         <v>44375</v>
       </c>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="50"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="52"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
@@ -29691,10 +29697,10 @@
       <c r="AC1" s="36"/>
       <c r="AD1" s="36"/>
       <c r="AE1" s="36"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
+      <c r="AG1" s="53"/>
       <c r="AH1" s="44" t="s">
         <v>253</v>
       </c>
@@ -29707,14 +29713,14 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="32"/>
       <c r="K2" s="46" t="s">
         <v>2</v>
@@ -29734,7 +29740,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="60">
+      <c r="Y2" s="58">
         <v>44350</v>
       </c>
       <c r="Z2" s="46"/>
@@ -29743,19 +29749,19 @@
       <c r="AC2" s="46"/>
       <c r="AD2" s="46"/>
       <c r="AE2" s="46"/>
-      <c r="AF2" s="56" t="s">
+      <c r="AF2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="62">
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="50">
         <v>44375</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="58"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
@@ -29773,33 +29779,33 @@
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="40"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="57"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -34054,10 +34060,10 @@
       <c r="AC1" s="36"/>
       <c r="AD1" s="36"/>
       <c r="AE1" s="36"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
+      <c r="AG1" s="53"/>
       <c r="AH1" s="44" t="s">
         <v>253</v>
       </c>
@@ -34070,14 +34076,14 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="32"/>
       <c r="K2" s="46" t="s">
         <v>2</v>
@@ -34097,7 +34103,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="60">
+      <c r="Y2" s="58">
         <v>44350</v>
       </c>
       <c r="Z2" s="46"/>
@@ -34106,19 +34112,19 @@
       <c r="AC2" s="46"/>
       <c r="AD2" s="46"/>
       <c r="AE2" s="46"/>
-      <c r="AF2" s="56" t="s">
+      <c r="AF2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="62">
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="50">
         <v>44375</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="58"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
@@ -34136,33 +34142,33 @@
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="40"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="57"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -38408,7 +38414,7 @@
         <v>7</v>
       </c>
       <c r="X1" s="36"/>
-      <c r="Y1" s="61" t="s">
+      <c r="Y1" s="62" t="s">
         <v>246</v>
       </c>
       <c r="Z1" s="36"/>
@@ -38417,10 +38423,10 @@
       <c r="AC1" s="36"/>
       <c r="AD1" s="36"/>
       <c r="AE1" s="36"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
+      <c r="AG1" s="53"/>
       <c r="AH1" s="44" t="s">
         <v>253</v>
       </c>
@@ -38433,14 +38439,14 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="32"/>
       <c r="K2" s="46" t="s">
         <v>2</v>
@@ -38460,7 +38466,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="60">
+      <c r="Y2" s="58">
         <v>44350</v>
       </c>
       <c r="Z2" s="46"/>
@@ -38469,19 +38475,19 @@
       <c r="AC2" s="46"/>
       <c r="AD2" s="46"/>
       <c r="AE2" s="46"/>
-      <c r="AF2" s="56" t="s">
+      <c r="AF2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="62">
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="50">
         <v>44375</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="58"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
@@ -38499,33 +38505,33 @@
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="40"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="57"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -42697,11 +42703,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -42712,6 +42713,11 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
@@ -42781,10 +42787,10 @@
       <c r="AC1" s="36"/>
       <c r="AD1" s="36"/>
       <c r="AE1" s="36"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
+      <c r="AG1" s="53"/>
       <c r="AH1" s="44" t="s">
         <v>253</v>
       </c>
@@ -42797,14 +42803,14 @@
     </row>
     <row r="2" spans="1:63" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="32"/>
       <c r="K2" s="46" t="s">
         <v>2</v>
@@ -42824,7 +42830,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="60">
+      <c r="Y2" s="58">
         <v>44350</v>
       </c>
       <c r="Z2" s="46"/>
@@ -42833,19 +42839,19 @@
       <c r="AC2" s="46"/>
       <c r="AD2" s="46"/>
       <c r="AE2" s="46"/>
-      <c r="AF2" s="56" t="s">
+      <c r="AF2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="62">
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="50">
         <v>44375</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="58"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
     </row>
     <row r="3" spans="1:63" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
@@ -42863,33 +42869,33 @@
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="40"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="57"/>
     </row>
     <row r="4" spans="1:63" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>
@@ -48248,10 +48254,10 @@
       <c r="AC1" s="36"/>
       <c r="AD1" s="36"/>
       <c r="AE1" s="36"/>
-      <c r="AF1" s="51" t="s">
+      <c r="AF1" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="AG1" s="51"/>
+      <c r="AG1" s="53"/>
       <c r="AH1" s="44" t="s">
         <v>253</v>
       </c>
@@ -48264,14 +48270,14 @@
     </row>
     <row r="2" spans="1:40" ht="15" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A2" s="30"/>
-      <c r="B2" s="52"/>
-      <c r="C2" s="52"/>
-      <c r="D2" s="52"/>
-      <c r="E2" s="52"/>
-      <c r="F2" s="52"/>
-      <c r="G2" s="52"/>
-      <c r="H2" s="52"/>
-      <c r="I2" s="52"/>
+      <c r="B2" s="54"/>
+      <c r="C2" s="54"/>
+      <c r="D2" s="54"/>
+      <c r="E2" s="54"/>
+      <c r="F2" s="54"/>
+      <c r="G2" s="54"/>
+      <c r="H2" s="54"/>
+      <c r="I2" s="54"/>
       <c r="J2" s="32"/>
       <c r="K2" s="46" t="s">
         <v>2</v>
@@ -48291,7 +48297,7 @@
         <v>1</v>
       </c>
       <c r="X2" s="46"/>
-      <c r="Y2" s="60">
+      <c r="Y2" s="58">
         <v>44350</v>
       </c>
       <c r="Z2" s="46"/>
@@ -48300,19 +48306,19 @@
       <c r="AC2" s="46"/>
       <c r="AD2" s="46"/>
       <c r="AE2" s="46"/>
-      <c r="AF2" s="56" t="s">
+      <c r="AF2" s="59" t="s">
         <v>3</v>
       </c>
-      <c r="AG2" s="56"/>
-      <c r="AH2" s="62">
+      <c r="AG2" s="59"/>
+      <c r="AH2" s="50">
         <v>44375</v>
       </c>
-      <c r="AI2" s="57"/>
-      <c r="AJ2" s="57"/>
-      <c r="AK2" s="57"/>
-      <c r="AL2" s="57"/>
-      <c r="AM2" s="57"/>
-      <c r="AN2" s="58"/>
+      <c r="AI2" s="60"/>
+      <c r="AJ2" s="60"/>
+      <c r="AK2" s="60"/>
+      <c r="AL2" s="60"/>
+      <c r="AM2" s="60"/>
+      <c r="AN2" s="61"/>
     </row>
     <row r="3" spans="1:40" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="33"/>
@@ -48330,33 +48336,33 @@
       </c>
       <c r="L3" s="39"/>
       <c r="M3" s="40"/>
-      <c r="N3" s="53"/>
-      <c r="O3" s="54"/>
-      <c r="P3" s="54"/>
-      <c r="Q3" s="54"/>
-      <c r="R3" s="54"/>
-      <c r="S3" s="54"/>
-      <c r="T3" s="54"/>
-      <c r="U3" s="54"/>
-      <c r="V3" s="54"/>
-      <c r="W3" s="54"/>
-      <c r="X3" s="54"/>
-      <c r="Y3" s="54"/>
-      <c r="Z3" s="54"/>
-      <c r="AA3" s="54"/>
-      <c r="AB3" s="54"/>
-      <c r="AC3" s="54"/>
-      <c r="AD3" s="54"/>
-      <c r="AE3" s="54"/>
-      <c r="AF3" s="54"/>
-      <c r="AG3" s="54"/>
-      <c r="AH3" s="54"/>
-      <c r="AI3" s="54"/>
-      <c r="AJ3" s="54"/>
-      <c r="AK3" s="54"/>
-      <c r="AL3" s="54"/>
-      <c r="AM3" s="54"/>
-      <c r="AN3" s="55"/>
+      <c r="N3" s="55"/>
+      <c r="O3" s="56"/>
+      <c r="P3" s="56"/>
+      <c r="Q3" s="56"/>
+      <c r="R3" s="56"/>
+      <c r="S3" s="56"/>
+      <c r="T3" s="56"/>
+      <c r="U3" s="56"/>
+      <c r="V3" s="56"/>
+      <c r="W3" s="56"/>
+      <c r="X3" s="56"/>
+      <c r="Y3" s="56"/>
+      <c r="Z3" s="56"/>
+      <c r="AA3" s="56"/>
+      <c r="AB3" s="56"/>
+      <c r="AC3" s="56"/>
+      <c r="AD3" s="56"/>
+      <c r="AE3" s="56"/>
+      <c r="AF3" s="56"/>
+      <c r="AG3" s="56"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="57"/>
     </row>
     <row r="4" spans="1:40" ht="15" customHeight="1" thickTop="1" x14ac:dyDescent="0.15">
       <c r="B4" s="2"/>

--- a/documents/外部設計/外部設計書_D2.xlsx
+++ b/documents/外部設計/外部設計書_D2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\D-2\documents\外部設計\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C8A173F-9682-4590-A48C-F3B77B9A80BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{567D1B48-BA5B-426F-A938-A530A313DC3F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8234,9 +8234,9 @@
   </xdr:twoCellAnchor>
   <xdr:oneCellAnchor>
     <xdr:from>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>272464</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>93170</xdr:colOff>
+      <xdr:row>20</xdr:row>
       <xdr:rowOff>127187</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="415017" cy="319651"/>
@@ -8253,7 +8253,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="4026435" y="2032187"/>
+          <a:off x="2166258" y="3937187"/>
           <a:ext cx="415017" cy="319651"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -15866,7 +15866,7 @@
   <dimension ref="A1:AN109"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="N5" sqref="N5"/>
+      <selection sqref="A1:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -42703,6 +42703,11 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="A1:J3"/>
+    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="N1:V1"/>
+    <mergeCell ref="W1:X1"/>
+    <mergeCell ref="Y1:AE1"/>
     <mergeCell ref="AF1:AG1"/>
     <mergeCell ref="K3:M3"/>
     <mergeCell ref="N3:AN3"/>
@@ -42713,11 +42718,6 @@
     <mergeCell ref="Y2:AE2"/>
     <mergeCell ref="AF2:AG2"/>
     <mergeCell ref="AH2:AN2"/>
-    <mergeCell ref="A1:J3"/>
-    <mergeCell ref="K1:M1"/>
-    <mergeCell ref="N1:V1"/>
-    <mergeCell ref="W1:X1"/>
-    <mergeCell ref="Y1:AE1"/>
   </mergeCells>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.59055118110236227" right="0.39370078740157483" top="0.59055118110236227" bottom="0.59055118110236227" header="0.39370078740157483" footer="0.39370078740157483"/>
